--- a/Stocks/RTX/RTX_HighLow.xlsx
+++ b/Stocks/RTX/RTX_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>75.09999847412109</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="B2">
-        <v>77.66999816894531</v>
+        <v>78.87999725341797</v>
       </c>
       <c r="C2">
-        <v>74.62999725341797</v>
+        <v>77.65000152587891</v>
       </c>
       <c r="D2">
-        <v>77.52999877929688</v>
+        <v>78.29000091552734</v>
       </c>
       <c r="E2">
-        <v>76.60616302490234</v>
+        <v>77.35710906982422</v>
       </c>
       <c r="F2">
-        <v>6359100</v>
+        <v>5423400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>77.41000366210938</v>
+        <v>78.25</v>
       </c>
       <c r="B3">
-        <v>78.26000213623047</v>
+        <v>78.81999969482422</v>
       </c>
       <c r="C3">
-        <v>76.56999969482422</v>
+        <v>78.12999725341797</v>
       </c>
       <c r="D3">
-        <v>78.16999816894531</v>
+        <v>78.72000122070312</v>
       </c>
       <c r="E3">
-        <v>77.23854064941406</v>
+        <v>77.78199005126953</v>
       </c>
       <c r="F3">
-        <v>6193900</v>
+        <v>5485800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>78.30999755859375</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>78.98999786376953</v>
+        <v>78.08000183105469</v>
       </c>
       <c r="C4">
-        <v>77.52999877929688</v>
+        <v>76.73999786376953</v>
       </c>
       <c r="D4">
-        <v>77.68000030517578</v>
+        <v>77.69999694824219</v>
       </c>
       <c r="E4">
-        <v>76.75437927246094</v>
+        <v>76.77413940429688</v>
       </c>
       <c r="F4">
-        <v>7136700</v>
+        <v>5490700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>77.62000274658203</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>78.44999694824219</v>
+        <v>78.69000244140625</v>
       </c>
       <c r="C5">
-        <v>77.26000213623047</v>
+        <v>77.76999664306641</v>
       </c>
       <c r="D5">
-        <v>77.81999969482422</v>
+        <v>77.95999908447266</v>
       </c>
       <c r="E5">
-        <v>76.89271545410156</v>
+        <v>77.03104400634766</v>
       </c>
       <c r="F5">
-        <v>5540000</v>
+        <v>4855200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>77.83999633789062</v>
+        <v>78.16000366210938</v>
       </c>
       <c r="B6">
-        <v>78.22000122070312</v>
+        <v>78.27999877929688</v>
       </c>
       <c r="C6">
-        <v>77.05000305175781</v>
+        <v>76.98000335693359</v>
       </c>
       <c r="D6">
-        <v>77.26999664306641</v>
+        <v>77.97000122070312</v>
       </c>
       <c r="E6">
-        <v>76.34926605224609</v>
+        <v>77.04092407226562</v>
       </c>
       <c r="F6">
-        <v>6003300</v>
+        <v>5106500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>77.61000061035156</v>
+        <v>78.58999633789062</v>
       </c>
       <c r="B7">
-        <v>77.80000305175781</v>
+        <v>78.58999633789062</v>
       </c>
       <c r="C7">
-        <v>76.93000030517578</v>
+        <v>77.05000305175781</v>
       </c>
       <c r="D7">
-        <v>77.27999877929688</v>
+        <v>78.22000122070312</v>
       </c>
       <c r="E7">
-        <v>76.35914611816406</v>
+        <v>77.28794860839844</v>
       </c>
       <c r="F7">
-        <v>6166200</v>
+        <v>7629700</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>77.86000061035156</v>
+        <v>78.12000274658203</v>
       </c>
       <c r="B8">
-        <v>78.44999694824219</v>
+        <v>78.73000335693359</v>
       </c>
       <c r="C8">
-        <v>77.54000091552734</v>
+        <v>77.73999786376953</v>
       </c>
       <c r="D8">
-        <v>77.91000366210938</v>
+        <v>78.58999633789062</v>
       </c>
       <c r="E8">
-        <v>76.98164367675781</v>
+        <v>77.65353393554688</v>
       </c>
       <c r="F8">
-        <v>5637900</v>
+        <v>6265600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>77.58999633789062</v>
+        <v>77.80000305175781</v>
       </c>
       <c r="B9">
-        <v>78.08999633789062</v>
+        <v>77.91000366210938</v>
       </c>
       <c r="C9">
-        <v>77.19999694824219</v>
+        <v>76.06999969482422</v>
       </c>
       <c r="D9">
-        <v>77.51000213623047</v>
+        <v>77.08999633789062</v>
       </c>
       <c r="E9">
-        <v>76.58641052246094</v>
+        <v>76.17140960693359</v>
       </c>
       <c r="F9">
-        <v>8489200</v>
+        <v>8692700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>77.48999786376953</v>
+        <v>76.80999755859375</v>
       </c>
       <c r="B10">
-        <v>78.11000061035156</v>
+        <v>78.94000244140625</v>
       </c>
       <c r="C10">
-        <v>77.05000305175781</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="D10">
-        <v>77.59999847412109</v>
+        <v>78.87000274658203</v>
       </c>
       <c r="E10">
-        <v>76.67533874511719</v>
+        <v>77.93020629882812</v>
       </c>
       <c r="F10">
-        <v>5334700</v>
+        <v>5186900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>77.12999725341797</v>
+        <v>78.98999786376953</v>
       </c>
       <c r="B11">
-        <v>77.55999755859375</v>
+        <v>79.91000366210938</v>
       </c>
       <c r="C11">
-        <v>76.48999786376953</v>
+        <v>78.55000305175781</v>
       </c>
       <c r="D11">
-        <v>77.48000335693359</v>
+        <v>78.73999786376953</v>
       </c>
       <c r="E11">
-        <v>76.5567626953125</v>
+        <v>77.80175018310547</v>
       </c>
       <c r="F11">
-        <v>5043000</v>
+        <v>6706800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>78.54000091552734</v>
+        <v>78.80999755859375</v>
       </c>
       <c r="B12">
-        <v>78.87999725341797</v>
+        <v>80.76000213623047</v>
       </c>
       <c r="C12">
-        <v>77.65000152587891</v>
+        <v>78.80999755859375</v>
       </c>
       <c r="D12">
-        <v>78.29000091552734</v>
+        <v>80.54000091552734</v>
       </c>
       <c r="E12">
-        <v>77.35711669921875</v>
+        <v>79.58029937744141</v>
       </c>
       <c r="F12">
-        <v>5423400</v>
+        <v>7139200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>78.25</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>78.81999969482422</v>
+        <v>82.06999969482422</v>
       </c>
       <c r="C13">
-        <v>78.12999725341797</v>
+        <v>80.80000305175781</v>
       </c>
       <c r="D13">
-        <v>78.72000122070312</v>
+        <v>81</v>
       </c>
       <c r="E13">
-        <v>77.78199005126953</v>
+        <v>80.03482055664062</v>
       </c>
       <c r="F13">
-        <v>5485800</v>
+        <v>12145600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>78</v>
+        <v>82.76000213623047</v>
       </c>
       <c r="B14">
-        <v>78.08000183105469</v>
+        <v>83.69000244140625</v>
       </c>
       <c r="C14">
-        <v>76.73999786376953</v>
+        <v>80.87999725341797</v>
       </c>
       <c r="D14">
-        <v>77.69999694824219</v>
+        <v>82.80999755859375</v>
       </c>
       <c r="E14">
-        <v>76.77413940429688</v>
+        <v>81.82324981689453</v>
       </c>
       <c r="F14">
-        <v>5490700</v>
+        <v>11082400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>78</v>
+        <v>81.48000335693359</v>
       </c>
       <c r="B15">
-        <v>78.69000244140625</v>
+        <v>83.12000274658203</v>
       </c>
       <c r="C15">
-        <v>77.76999664306641</v>
+        <v>81.48000335693359</v>
       </c>
       <c r="D15">
-        <v>77.95999908447266</v>
+        <v>83.08000183105469</v>
       </c>
       <c r="E15">
-        <v>77.03104400634766</v>
+        <v>82.09003448486328</v>
       </c>
       <c r="F15">
-        <v>4855200</v>
+        <v>7164200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>78.16000366210938</v>
+        <v>83.55999755859375</v>
       </c>
       <c r="B16">
-        <v>78.27999877929688</v>
+        <v>83.80000305175781</v>
       </c>
       <c r="C16">
-        <v>76.98000335693359</v>
+        <v>82.51000213623047</v>
       </c>
       <c r="D16">
-        <v>77.97000122070312</v>
+        <v>82.87000274658203</v>
       </c>
       <c r="E16">
-        <v>77.04092407226562</v>
+        <v>81.88253784179688</v>
       </c>
       <c r="F16">
-        <v>5106500</v>
+        <v>6237000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>78.58999633789062</v>
+        <v>82.55000305175781</v>
       </c>
       <c r="B17">
-        <v>78.58999633789062</v>
+        <v>83.41000366210938</v>
       </c>
       <c r="C17">
-        <v>77.05000305175781</v>
+        <v>82.34999847412109</v>
       </c>
       <c r="D17">
-        <v>78.22000122070312</v>
+        <v>83.23999786376953</v>
       </c>
       <c r="E17">
-        <v>77.28794860839844</v>
+        <v>82.24813079833984</v>
       </c>
       <c r="F17">
-        <v>7629700</v>
+        <v>5616000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>78.12000274658203</v>
+        <v>83.80000305175781</v>
       </c>
       <c r="B18">
-        <v>78.73000335693359</v>
+        <v>84.44999694824219</v>
       </c>
       <c r="C18">
-        <v>77.73999786376953</v>
+        <v>83.27999877929688</v>
       </c>
       <c r="D18">
-        <v>78.58999633789062</v>
+        <v>84.13999938964844</v>
       </c>
       <c r="E18">
-        <v>77.65353393554688</v>
+        <v>83.13740539550781</v>
       </c>
       <c r="F18">
-        <v>6265600</v>
+        <v>5828800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>77.80000305175781</v>
+        <v>84.12000274658203</v>
       </c>
       <c r="B19">
-        <v>77.91000366210938</v>
+        <v>84.58999633789062</v>
       </c>
       <c r="C19">
-        <v>76.06999969482422</v>
+        <v>83.15000152587891</v>
       </c>
       <c r="D19">
-        <v>77.08999633789062</v>
+        <v>83.94000244140625</v>
       </c>
       <c r="E19">
-        <v>76.17140197753906</v>
+        <v>82.93978881835938</v>
       </c>
       <c r="F19">
-        <v>8692700</v>
+        <v>9306900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>76.80999755859375</v>
+        <v>83.62999725341797</v>
       </c>
       <c r="B20">
-        <v>78.94000244140625</v>
+        <v>84.66999816894531</v>
       </c>
       <c r="C20">
-        <v>76.40000152587891</v>
+        <v>83.54000091552734</v>
       </c>
       <c r="D20">
-        <v>78.87000274658203</v>
+        <v>84.12999725341797</v>
       </c>
       <c r="E20">
-        <v>77.93019866943359</v>
+        <v>83.12752532958984</v>
       </c>
       <c r="F20">
-        <v>5186900</v>
+        <v>4658200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>78.98999786376953</v>
+        <v>84.80999755859375</v>
       </c>
       <c r="B21">
-        <v>79.91000366210938</v>
+        <v>84.90000152587891</v>
       </c>
       <c r="C21">
-        <v>78.55000305175781</v>
+        <v>83.52999877929688</v>
       </c>
       <c r="D21">
-        <v>78.73999786376953</v>
+        <v>84.68000030517578</v>
       </c>
       <c r="E21">
-        <v>77.80175018310547</v>
+        <v>83.67096710205078</v>
       </c>
       <c r="F21">
-        <v>6706800</v>
+        <v>4903900</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>78.80999755859375</v>
+        <v>84.80999755859375</v>
       </c>
       <c r="B22">
-        <v>80.76000213623047</v>
+        <v>85.93000030517578</v>
       </c>
       <c r="C22">
-        <v>78.80999755859375</v>
+        <v>84.13999938964844</v>
       </c>
       <c r="D22">
-        <v>80.54000091552734</v>
+        <v>85.70999908447266</v>
       </c>
       <c r="E22">
-        <v>79.58029937744141</v>
+        <v>84.68869781494141</v>
       </c>
       <c r="F22">
-        <v>7139200</v>
+        <v>6056000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>81</v>
+        <v>86.86000061035156</v>
       </c>
       <c r="B23">
-        <v>82.06999969482422</v>
+        <v>87.04000091552734</v>
       </c>
       <c r="C23">
-        <v>80.80000305175781</v>
+        <v>84.93000030517578</v>
       </c>
       <c r="D23">
-        <v>81</v>
+        <v>85.04000091552734</v>
       </c>
       <c r="E23">
-        <v>80.03482055664062</v>
+        <v>84.02667999267578</v>
       </c>
       <c r="F23">
-        <v>12145600</v>
+        <v>9042600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>82.76000213623047</v>
+        <v>84.23999786376953</v>
       </c>
       <c r="B24">
-        <v>83.69000244140625</v>
+        <v>85.19999694824219</v>
       </c>
       <c r="C24">
-        <v>80.87999725341797</v>
+        <v>83.34999847412109</v>
       </c>
       <c r="D24">
-        <v>82.80999755859375</v>
+        <v>84.33000183105469</v>
       </c>
       <c r="E24">
-        <v>81.82324981689453</v>
+        <v>83.32514190673828</v>
       </c>
       <c r="F24">
-        <v>11082400</v>
+        <v>6708100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>81.48000335693359</v>
+        <v>84.23000335693359</v>
       </c>
       <c r="B25">
-        <v>83.12000274658203</v>
+        <v>84.86000061035156</v>
       </c>
       <c r="C25">
-        <v>81.48000335693359</v>
+        <v>82.22000122070312</v>
       </c>
       <c r="D25">
-        <v>83.08000183105469</v>
+        <v>82.27999877929688</v>
       </c>
       <c r="E25">
-        <v>82.09003448486328</v>
+        <v>81.29956817626953</v>
       </c>
       <c r="F25">
-        <v>7164200</v>
+        <v>6086800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>83.55999755859375</v>
+        <v>82.30000305175781</v>
       </c>
       <c r="B26">
-        <v>83.80000305175781</v>
+        <v>84.27999877929688</v>
       </c>
       <c r="C26">
-        <v>82.51000213623047</v>
+        <v>82.13999938964844</v>
       </c>
       <c r="D26">
-        <v>82.87000274658203</v>
+        <v>83.77999877929688</v>
       </c>
       <c r="E26">
-        <v>81.88253784179688</v>
+        <v>82.78169250488281</v>
       </c>
       <c r="F26">
-        <v>6237000</v>
+        <v>4701200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>82.55000305175781</v>
+        <v>84.44999694824219</v>
       </c>
       <c r="B27">
-        <v>83.41000366210938</v>
+        <v>86.06999969482422</v>
       </c>
       <c r="C27">
-        <v>82.34999847412109</v>
+        <v>84.36000061035156</v>
       </c>
       <c r="D27">
-        <v>83.23999786376953</v>
+        <v>85.87999725341797</v>
       </c>
       <c r="E27">
-        <v>82.24812316894531</v>
+        <v>84.85666656494141</v>
       </c>
       <c r="F27">
-        <v>5616000</v>
+        <v>4989200</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>83.80000305175781</v>
+        <v>85.05999755859375</v>
       </c>
       <c r="B28">
-        <v>84.44999694824219</v>
+        <v>86.56999969482422</v>
       </c>
       <c r="C28">
-        <v>83.27999877929688</v>
+        <v>85.05999755859375</v>
       </c>
       <c r="D28">
-        <v>84.13999938964844</v>
+        <v>86.56999969482422</v>
       </c>
       <c r="E28">
-        <v>83.13740539550781</v>
+        <v>85.5384521484375</v>
       </c>
       <c r="F28">
-        <v>5828800</v>
+        <v>5059800</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>84.12000274658203</v>
+        <v>86.19999694824219</v>
       </c>
       <c r="B29">
-        <v>84.58999633789062</v>
+        <v>86.95999908447266</v>
       </c>
       <c r="C29">
-        <v>83.15000152587891</v>
+        <v>85.34999847412109</v>
       </c>
       <c r="D29">
-        <v>83.94000244140625</v>
+        <v>85.37999725341797</v>
       </c>
       <c r="E29">
-        <v>82.93979644775391</v>
+        <v>84.36262512207031</v>
       </c>
       <c r="F29">
-        <v>9306900</v>
+        <v>7438300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>83.62999725341797</v>
+        <v>84.83999633789062</v>
       </c>
       <c r="B30">
-        <v>84.66999816894531</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="C30">
-        <v>83.54000091552734</v>
+        <v>83.58000183105469</v>
       </c>
       <c r="D30">
-        <v>84.12999725341797</v>
+        <v>85.20999908447266</v>
       </c>
       <c r="E30">
-        <v>83.12751770019531</v>
+        <v>84.19464874267578</v>
       </c>
       <c r="F30">
-        <v>4658200</v>
+        <v>9296500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>84.80999755859375</v>
+        <v>84.73999786376953</v>
       </c>
       <c r="B31">
-        <v>84.90000152587891</v>
+        <v>85.55999755859375</v>
       </c>
       <c r="C31">
-        <v>83.52999877929688</v>
+        <v>84.08999633789062</v>
       </c>
       <c r="D31">
-        <v>84.68000030517578</v>
+        <v>85.23000335693359</v>
       </c>
       <c r="E31">
-        <v>83.67097473144531</v>
+        <v>84.72149658203125</v>
       </c>
       <c r="F31">
-        <v>4903900</v>
+        <v>10059900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>84.80999755859375</v>
+        <v>85.84999847412109</v>
       </c>
       <c r="B32">
-        <v>85.93000030517578</v>
+        <v>87.09999847412109</v>
       </c>
       <c r="C32">
-        <v>84.13999938964844</v>
+        <v>85.55000305175781</v>
       </c>
       <c r="D32">
-        <v>85.70999908447266</v>
+        <v>85.80999755859375</v>
       </c>
       <c r="E32">
-        <v>84.68869018554688</v>
+        <v>85.29802703857422</v>
       </c>
       <c r="F32">
-        <v>6056000</v>
+        <v>5803800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>86.86000061035156</v>
+        <v>86.48999786376953</v>
       </c>
       <c r="B33">
-        <v>87.04000091552734</v>
+        <v>86.94999694824219</v>
       </c>
       <c r="C33">
-        <v>84.93000030517578</v>
+        <v>86</v>
       </c>
       <c r="D33">
-        <v>85.04000091552734</v>
+        <v>86.48000335693359</v>
       </c>
       <c r="E33">
-        <v>84.02667999267578</v>
+        <v>85.96403503417969</v>
       </c>
       <c r="F33">
-        <v>9042600</v>
+        <v>5113300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>84.23999786376953</v>
+        <v>86.62999725341797</v>
       </c>
       <c r="B34">
-        <v>85.19999694824219</v>
+        <v>87.27999877929688</v>
       </c>
       <c r="C34">
-        <v>83.34999847412109</v>
+        <v>85.98999786376953</v>
       </c>
       <c r="D34">
-        <v>84.33000183105469</v>
+        <v>86.26000213623047</v>
       </c>
       <c r="E34">
-        <v>83.32514190673828</v>
+        <v>85.74534606933594</v>
       </c>
       <c r="F34">
-        <v>6708100</v>
+        <v>7606300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>84.23000335693359</v>
+        <v>86.33000183105469</v>
       </c>
       <c r="B35">
-        <v>84.86000061035156</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="C35">
-        <v>82.22000122070312</v>
+        <v>86</v>
       </c>
       <c r="D35">
-        <v>82.27999877929688</v>
+        <v>86.5</v>
       </c>
       <c r="E35">
-        <v>81.29956817626953</v>
+        <v>85.98391723632812</v>
       </c>
       <c r="F35">
-        <v>6086800</v>
+        <v>4826200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>82.30000305175781</v>
+        <v>88.5</v>
       </c>
       <c r="B36">
-        <v>84.27999877929688</v>
+        <v>88.80999755859375</v>
       </c>
       <c r="C36">
-        <v>82.13999938964844</v>
+        <v>87.70999908447266</v>
       </c>
       <c r="D36">
-        <v>83.77999877929688</v>
+        <v>88.61000061035156</v>
       </c>
       <c r="E36">
-        <v>82.78169250488281</v>
+        <v>88.08132934570312</v>
       </c>
       <c r="F36">
-        <v>4701200</v>
+        <v>10492200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>84.44999694824219</v>
+        <v>88.40000152587891</v>
       </c>
       <c r="B37">
-        <v>86.06999969482422</v>
+        <v>88.83000183105469</v>
       </c>
       <c r="C37">
-        <v>84.36000061035156</v>
+        <v>88.04000091552734</v>
       </c>
       <c r="D37">
-        <v>85.87999725341797</v>
+        <v>88.70999908447266</v>
       </c>
       <c r="E37">
-        <v>84.85667419433594</v>
+        <v>88.18072509765625</v>
       </c>
       <c r="F37">
-        <v>4989200</v>
+        <v>4850300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>85.05999755859375</v>
+        <v>89.80999755859375</v>
       </c>
       <c r="B38">
-        <v>86.56999969482422</v>
+        <v>89.93000030517578</v>
       </c>
       <c r="C38">
-        <v>85.05999755859375</v>
+        <v>88.83999633789062</v>
       </c>
       <c r="D38">
-        <v>86.56999969482422</v>
+        <v>88.98999786376953</v>
       </c>
       <c r="E38">
-        <v>85.5384521484375</v>
+        <v>88.45905303955078</v>
       </c>
       <c r="F38">
-        <v>5059800</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>86.19999694824219</v>
+        <v>89.25</v>
       </c>
       <c r="B39">
-        <v>86.95999908447266</v>
+        <v>89.25</v>
       </c>
       <c r="C39">
-        <v>85.34999847412109</v>
+        <v>88.44999694824219</v>
       </c>
       <c r="D39">
-        <v>85.37999725341797</v>
+        <v>88.62999725341797</v>
       </c>
       <c r="E39">
-        <v>84.36263275146484</v>
+        <v>88.10120391845703</v>
       </c>
       <c r="F39">
-        <v>7438300</v>
+        <v>4429100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>84.83999633789062</v>
+        <v>88.11000061035156</v>
       </c>
       <c r="B40">
-        <v>85.26999664306641</v>
+        <v>88.97000122070312</v>
       </c>
       <c r="C40">
-        <v>83.58000183105469</v>
+        <v>87.88999938964844</v>
       </c>
       <c r="D40">
-        <v>85.20999908447266</v>
+        <v>88.68000030517578</v>
       </c>
       <c r="E40">
-        <v>84.19464874267578</v>
+        <v>88.15090942382812</v>
       </c>
       <c r="F40">
-        <v>9296500</v>
+        <v>4083200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>84.73999786376953</v>
+        <v>88.65000152587891</v>
       </c>
       <c r="B41">
-        <v>85.55999755859375</v>
+        <v>89.23999786376953</v>
       </c>
       <c r="C41">
-        <v>84.08999633789062</v>
+        <v>88.55000305175781</v>
       </c>
       <c r="D41">
-        <v>85.23000335693359</v>
+        <v>89.01999664306641</v>
       </c>
       <c r="E41">
-        <v>84.72149658203125</v>
+        <v>88.48887634277344</v>
       </c>
       <c r="F41">
-        <v>10059900</v>
+        <v>4082800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>85.84999847412109</v>
+        <v>88.97000122070312</v>
       </c>
       <c r="B42">
-        <v>87.09999847412109</v>
+        <v>89.15000152587891</v>
       </c>
       <c r="C42">
-        <v>85.55000305175781</v>
+        <v>88.48000335693359</v>
       </c>
       <c r="D42">
-        <v>85.80999755859375</v>
+        <v>88.97000122070312</v>
       </c>
       <c r="E42">
-        <v>85.29802703857422</v>
+        <v>88.43917846679688</v>
       </c>
       <c r="F42">
-        <v>5803800</v>
+        <v>5693900</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>86.48999786376953</v>
+        <v>89.19999694824219</v>
       </c>
       <c r="B43">
-        <v>86.94999694824219</v>
+        <v>89.77999877929688</v>
       </c>
       <c r="C43">
-        <v>86</v>
+        <v>88.76000213623047</v>
       </c>
       <c r="D43">
-        <v>86.48000335693359</v>
+        <v>89.44999694824219</v>
       </c>
       <c r="E43">
-        <v>85.96403503417969</v>
+        <v>88.91631317138672</v>
       </c>
       <c r="F43">
-        <v>5113300</v>
+        <v>4777000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>86.62999725341797</v>
+        <v>89.36000061035156</v>
       </c>
       <c r="B44">
-        <v>87.27999877929688</v>
+        <v>89.56999969482422</v>
       </c>
       <c r="C44">
-        <v>85.98999786376953</v>
+        <v>88.81999969482422</v>
       </c>
       <c r="D44">
-        <v>86.26000213623047</v>
+        <v>88.84999847412109</v>
       </c>
       <c r="E44">
-        <v>85.74534606933594</v>
+        <v>88.31989288330078</v>
       </c>
       <c r="F44">
-        <v>7606300</v>
+        <v>4594500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>86.33000183105469</v>
+        <v>89.80000305175781</v>
       </c>
       <c r="B45">
-        <v>86.73000335693359</v>
+        <v>89.98000335693359</v>
       </c>
       <c r="C45">
-        <v>86</v>
+        <v>88.16000366210938</v>
       </c>
       <c r="D45">
-        <v>86.5</v>
+        <v>88.25</v>
       </c>
       <c r="E45">
-        <v>85.98391723632812</v>
+        <v>87.72347259521484</v>
       </c>
       <c r="F45">
-        <v>4826200</v>
+        <v>4826300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>88.5</v>
+        <v>88.69999694824219</v>
       </c>
       <c r="B46">
+        <v>88.97000122070312</v>
+      </c>
+      <c r="C46">
+        <v>88.16999816894531</v>
+      </c>
+      <c r="D46">
         <v>88.80999755859375</v>
       </c>
-      <c r="C46">
-        <v>87.70999908447266</v>
-      </c>
-      <c r="D46">
-        <v>88.61000061035156</v>
-      </c>
       <c r="E46">
-        <v>88.08132934570312</v>
+        <v>88.28012847900391</v>
       </c>
       <c r="F46">
-        <v>10492200</v>
+        <v>4082700</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>88.40000152587891</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="B47">
-        <v>88.83000183105469</v>
+        <v>89.19000244140625</v>
       </c>
       <c r="C47">
-        <v>88.04000091552734</v>
+        <v>88.25</v>
       </c>
       <c r="D47">
-        <v>88.70999908447266</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="E47">
-        <v>88.18072509765625</v>
+        <v>88.190673828125</v>
       </c>
       <c r="F47">
-        <v>4850300</v>
+        <v>5924900</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>89.80999755859375</v>
+        <v>88.94999694824219</v>
       </c>
       <c r="B48">
-        <v>89.93000030517578</v>
+        <v>89.80000305175781</v>
       </c>
       <c r="C48">
-        <v>88.83999633789062</v>
+        <v>88.80000305175781</v>
       </c>
       <c r="D48">
-        <v>88.98999786376953</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="E48">
-        <v>88.45905303955078</v>
+        <v>88.86661529541016</v>
       </c>
       <c r="F48">
-        <v>4302200</v>
+        <v>5336700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>89.25</v>
+        <v>89.23000335693359</v>
       </c>
       <c r="B49">
-        <v>89.25</v>
+        <v>89.43000030517578</v>
       </c>
       <c r="C49">
-        <v>88.44999694824219</v>
+        <v>87.94999694824219</v>
       </c>
       <c r="D49">
-        <v>88.62999725341797</v>
+        <v>88.43000030517578</v>
       </c>
       <c r="E49">
-        <v>88.10120391845703</v>
+        <v>87.90239715576172</v>
       </c>
       <c r="F49">
-        <v>4429100</v>
+        <v>8033800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>88.11000061035156</v>
+        <v>88.48000335693359</v>
       </c>
       <c r="B50">
-        <v>88.97000122070312</v>
+        <v>88.73000335693359</v>
       </c>
       <c r="C50">
-        <v>87.88999938964844</v>
+        <v>86.31999969482422</v>
       </c>
       <c r="D50">
-        <v>88.68000030517578</v>
+        <v>87.12999725341797</v>
       </c>
       <c r="E50">
-        <v>88.15090942382812</v>
+        <v>86.61015319824219</v>
       </c>
       <c r="F50">
-        <v>4083200</v>
+        <v>7480500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>88.65000152587891</v>
+        <v>85.90000152587891</v>
       </c>
       <c r="B51">
-        <v>89.23999786376953</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="C51">
-        <v>88.55000305175781</v>
+        <v>85.62000274658203</v>
       </c>
       <c r="D51">
-        <v>89.01999664306641</v>
+        <v>85.91999816894531</v>
       </c>
       <c r="E51">
-        <v>88.48887634277344</v>
+        <v>85.40737152099609</v>
       </c>
       <c r="F51">
-        <v>4082800</v>
+        <v>10387200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>88.97000122070312</v>
+        <v>86.75</v>
       </c>
       <c r="B52">
-        <v>89.15000152587891</v>
+        <v>88.13999938964844</v>
       </c>
       <c r="C52">
-        <v>88.48000335693359</v>
+        <v>86.51999664306641</v>
       </c>
       <c r="D52">
-        <v>88.97000122070312</v>
+        <v>88</v>
       </c>
       <c r="E52">
-        <v>88.43917846679688</v>
+        <v>87.47496795654297</v>
       </c>
       <c r="F52">
-        <v>5693900</v>
+        <v>5097400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>89.19999694824219</v>
+        <v>87.68000030517578</v>
       </c>
       <c r="B53">
-        <v>89.77999877929688</v>
+        <v>88.05999755859375</v>
       </c>
       <c r="C53">
-        <v>88.76000213623047</v>
+        <v>86.86000061035156</v>
       </c>
       <c r="D53">
-        <v>89.44999694824219</v>
+        <v>87.37999725341797</v>
       </c>
       <c r="E53">
-        <v>88.91631317138672</v>
+        <v>86.85865783691406</v>
       </c>
       <c r="F53">
-        <v>4777000</v>
+        <v>4150100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>89.36000061035156</v>
+        <v>87.41999816894531</v>
       </c>
       <c r="B54">
-        <v>89.56999969482422</v>
+        <v>87.61000061035156</v>
       </c>
       <c r="C54">
-        <v>88.81999969482422</v>
+        <v>86.56999969482422</v>
       </c>
       <c r="D54">
-        <v>88.84999847412109</v>
+        <v>86.59999847412109</v>
       </c>
       <c r="E54">
-        <v>88.31989288330078</v>
+        <v>86.08331298828125</v>
       </c>
       <c r="F54">
-        <v>4594500</v>
+        <v>3524500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>89.80000305175781</v>
+        <v>87.18000030517578</v>
       </c>
       <c r="B55">
-        <v>89.98000335693359</v>
+        <v>87.18000030517578</v>
       </c>
       <c r="C55">
-        <v>88.16000366210938</v>
+        <v>86.26000213623047</v>
       </c>
       <c r="D55">
-        <v>88.25</v>
+        <v>86.84999847412109</v>
       </c>
       <c r="E55">
-        <v>87.72347259521484</v>
+        <v>86.33182525634766</v>
       </c>
       <c r="F55">
-        <v>4826300</v>
+        <v>5335200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>88.69999694824219</v>
+        <v>87.02999877929688</v>
       </c>
       <c r="B56">
-        <v>88.97000122070312</v>
+        <v>87.40000152587891</v>
       </c>
       <c r="C56">
-        <v>88.16999816894531</v>
+        <v>86.68000030517578</v>
       </c>
       <c r="D56">
-        <v>88.80999755859375</v>
+        <v>86.72000122070312</v>
       </c>
       <c r="E56">
-        <v>88.28012847900391</v>
+        <v>86.20260620117188</v>
       </c>
       <c r="F56">
-        <v>4082700</v>
+        <v>6611000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>88.72000122070312</v>
+        <v>86.38999938964844</v>
       </c>
       <c r="B57">
-        <v>89.19000244140625</v>
+        <v>86.40000152587891</v>
       </c>
       <c r="C57">
-        <v>88.25</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="D57">
-        <v>88.72000122070312</v>
+        <v>85.11000061035156</v>
       </c>
       <c r="E57">
-        <v>88.190673828125</v>
+        <v>84.60221099853516</v>
       </c>
       <c r="F57">
-        <v>5924900</v>
+        <v>5738300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>88.94999694824219</v>
+        <v>85.37999725341797</v>
       </c>
       <c r="B58">
-        <v>89.80000305175781</v>
+        <v>85.87000274658203</v>
       </c>
       <c r="C58">
-        <v>88.80000305175781</v>
+        <v>84.33999633789062</v>
       </c>
       <c r="D58">
-        <v>89.40000152587891</v>
+        <v>84.44000244140625</v>
       </c>
       <c r="E58">
-        <v>88.86661529541016</v>
+        <v>83.93621063232422</v>
       </c>
       <c r="F58">
-        <v>5336700</v>
+        <v>6496800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>89.23000335693359</v>
+        <v>84.33999633789062</v>
       </c>
       <c r="B59">
-        <v>89.43000030517578</v>
+        <v>85.66999816894531</v>
       </c>
       <c r="C59">
-        <v>87.94999694824219</v>
+        <v>84.13999938964844</v>
       </c>
       <c r="D59">
-        <v>88.43000030517578</v>
+        <v>85.30999755859375</v>
       </c>
       <c r="E59">
-        <v>87.90239715576172</v>
+        <v>84.80101013183594</v>
       </c>
       <c r="F59">
-        <v>8033800</v>
+        <v>4744500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>88.48000335693359</v>
+        <v>85.41999816894531</v>
       </c>
       <c r="B60">
-        <v>88.73000335693359</v>
+        <v>86.25</v>
       </c>
       <c r="C60">
-        <v>86.31999969482422</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="D60">
-        <v>87.12999725341797</v>
+        <v>86.22000122070312</v>
       </c>
       <c r="E60">
-        <v>86.61015319824219</v>
+        <v>85.70558929443359</v>
       </c>
       <c r="F60">
-        <v>7480500</v>
+        <v>3903900</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>85.90000152587891</v>
+        <v>86.5</v>
       </c>
       <c r="B61">
-        <v>86.73000335693359</v>
+        <v>87</v>
       </c>
       <c r="C61">
-        <v>85.62000274658203</v>
+        <v>85.83000183105469</v>
       </c>
       <c r="D61">
-        <v>85.91999816894531</v>
+        <v>86.69999694824219</v>
       </c>
       <c r="E61">
-        <v>85.40737152099609</v>
+        <v>86.18271636962891</v>
       </c>
       <c r="F61">
-        <v>10387200</v>
+        <v>4185400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>86.75</v>
+        <v>86.15000152587891</v>
       </c>
       <c r="B62">
-        <v>88.13999938964844</v>
+        <v>86.48999786376953</v>
       </c>
       <c r="C62">
-        <v>86.51999664306641</v>
+        <v>84.93000030517578</v>
       </c>
       <c r="D62">
-        <v>88</v>
+        <v>85.75</v>
       </c>
       <c r="E62">
-        <v>87.47496795654297</v>
+        <v>85.23838806152344</v>
       </c>
       <c r="F62">
-        <v>5097400</v>
+        <v>4140000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>87.68000030517578</v>
+        <v>85.16999816894531</v>
       </c>
       <c r="B63">
-        <v>88.05999755859375</v>
+        <v>86.04000091552734</v>
       </c>
       <c r="C63">
-        <v>86.86000061035156</v>
+        <v>84.81999969482422</v>
       </c>
       <c r="D63">
-        <v>87.37999725341797</v>
+        <v>85.83000183105469</v>
       </c>
       <c r="E63">
-        <v>86.85865783691406</v>
+        <v>85.31791687011719</v>
       </c>
       <c r="F63">
-        <v>4150100</v>
+        <v>4127200</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>87.41999816894531</v>
+        <v>84.59999847412109</v>
       </c>
       <c r="B64">
-        <v>87.61000061035156</v>
+        <v>85.77999877929688</v>
       </c>
       <c r="C64">
-        <v>86.56999969482422</v>
+        <v>84.01999664306641</v>
       </c>
       <c r="D64">
-        <v>86.59999847412109</v>
+        <v>85.44000244140625</v>
       </c>
       <c r="E64">
-        <v>86.08331298828125</v>
+        <v>84.93024444580078</v>
       </c>
       <c r="F64">
-        <v>3524500</v>
+        <v>4665500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>87.18000030517578</v>
+        <v>86.5</v>
       </c>
       <c r="B65">
-        <v>87.18000030517578</v>
+        <v>86.75</v>
       </c>
       <c r="C65">
-        <v>86.26000213623047</v>
+        <v>86.01999664306641</v>
       </c>
       <c r="D65">
-        <v>86.84999847412109</v>
+        <v>86.37999725341797</v>
       </c>
       <c r="E65">
-        <v>86.33182525634766</v>
+        <v>85.8646240234375</v>
       </c>
       <c r="F65">
-        <v>5335200</v>
+        <v>4556200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>87.02999877929688</v>
+        <v>85.55999755859375</v>
       </c>
       <c r="B66">
-        <v>87.40000152587891</v>
+        <v>86.40000152587891</v>
       </c>
       <c r="C66">
-        <v>86.68000030517578</v>
+        <v>85.01999664306641</v>
       </c>
       <c r="D66">
-        <v>86.72000122070312</v>
+        <v>86.22000122070312</v>
       </c>
       <c r="E66">
-        <v>86.20260620117188</v>
+        <v>85.70558929443359</v>
       </c>
       <c r="F66">
-        <v>6611000</v>
+        <v>5464400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>86.38999938964844</v>
+        <v>86.16999816894531</v>
       </c>
       <c r="B67">
-        <v>86.40000152587891</v>
+        <v>86.23999786376953</v>
       </c>
       <c r="C67">
-        <v>84.76000213623047</v>
+        <v>85.26000213623047</v>
       </c>
       <c r="D67">
-        <v>85.11000061035156</v>
+        <v>85.33000183105469</v>
       </c>
       <c r="E67">
-        <v>84.60221099853516</v>
+        <v>84.82089996337891</v>
       </c>
       <c r="F67">
-        <v>5738300</v>
+        <v>4595000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>85.37999725341797</v>
+        <v>85.18000030517578</v>
       </c>
       <c r="B68">
-        <v>85.87000274658203</v>
+        <v>85.88999938964844</v>
       </c>
       <c r="C68">
-        <v>84.33999633789062</v>
+        <v>84.45999908447266</v>
       </c>
       <c r="D68">
-        <v>84.44000244140625</v>
+        <v>84.91000366210938</v>
       </c>
       <c r="E68">
-        <v>83.93621063232422</v>
+        <v>84.40340423583984</v>
       </c>
       <c r="F68">
-        <v>6496800</v>
+        <v>3665400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>84.33999633789062</v>
+        <v>84.08999633789062</v>
       </c>
       <c r="B69">
-        <v>85.66999816894531</v>
+        <v>85.52999877929688</v>
       </c>
       <c r="C69">
-        <v>84.13999938964844</v>
+        <v>83.94000244140625</v>
       </c>
       <c r="D69">
-        <v>85.30999755859375</v>
+        <v>84.98000335693359</v>
       </c>
       <c r="E69">
-        <v>84.80101013183594</v>
+        <v>84.47298431396484</v>
       </c>
       <c r="F69">
-        <v>4744500</v>
+        <v>3460800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>85.41999816894531</v>
+        <v>85.62000274658203</v>
       </c>
       <c r="B70">
-        <v>86.25</v>
+        <v>85.75</v>
       </c>
       <c r="C70">
-        <v>85.26999664306641</v>
+        <v>83.30000305175781</v>
       </c>
       <c r="D70">
-        <v>86.22000122070312</v>
+        <v>83.52999877929688</v>
       </c>
       <c r="E70">
-        <v>85.70558929443359</v>
+        <v>83.03163146972656</v>
       </c>
       <c r="F70">
-        <v>3903900</v>
+        <v>4023800</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>86.5</v>
+        <v>81.80000305175781</v>
       </c>
       <c r="B71">
-        <v>87</v>
+        <v>81.95999908447266</v>
       </c>
       <c r="C71">
-        <v>85.83000183105469</v>
+        <v>79.72000122070312</v>
       </c>
       <c r="D71">
-        <v>86.69999694824219</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="E71">
-        <v>86.18271636962891</v>
+        <v>80.56643676757812</v>
       </c>
       <c r="F71">
-        <v>4185400</v>
+        <v>9221300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>86.15000152587891</v>
+        <v>81.30000305175781</v>
       </c>
       <c r="B72">
-        <v>86.48999786376953</v>
+        <v>85.12999725341797</v>
       </c>
       <c r="C72">
-        <v>84.93000030517578</v>
+        <v>81.01999664306641</v>
       </c>
       <c r="D72">
-        <v>85.75</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="E72">
-        <v>85.23838806152344</v>
+        <v>84.29405975341797</v>
       </c>
       <c r="F72">
-        <v>4140000</v>
+        <v>7935000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>85.16999816894531</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="B73">
-        <v>86.04000091552734</v>
+        <v>86.95999908447266</v>
       </c>
       <c r="C73">
-        <v>84.81999969482422</v>
+        <v>85.05000305175781</v>
       </c>
       <c r="D73">
-        <v>85.83000183105469</v>
+        <v>86.58000183105469</v>
       </c>
       <c r="E73">
-        <v>85.31791687011719</v>
+        <v>86.06343841552734</v>
       </c>
       <c r="F73">
-        <v>4127200</v>
+        <v>5398300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>84.59999847412109</v>
+        <v>86.26999664306641</v>
       </c>
       <c r="B74">
-        <v>85.77999877929688</v>
+        <v>86.5</v>
       </c>
       <c r="C74">
-        <v>84.01999664306641</v>
+        <v>85.19000244140625</v>
       </c>
       <c r="D74">
-        <v>85.44000244140625</v>
+        <v>85.81999969482422</v>
       </c>
       <c r="E74">
-        <v>84.93024444580078</v>
+        <v>85.30796813964844</v>
       </c>
       <c r="F74">
-        <v>4665500</v>
+        <v>4124300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>86.5</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="B75">
-        <v>86.75</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="C75">
-        <v>86.01999664306641</v>
+        <v>85.61000061035156</v>
       </c>
       <c r="D75">
-        <v>86.37999725341797</v>
+        <v>85.80999755859375</v>
       </c>
       <c r="E75">
-        <v>85.8646240234375</v>
+        <v>85.29802703857422</v>
       </c>
       <c r="F75">
-        <v>4556200</v>
+        <v>2607600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>85.55999755859375</v>
+        <v>85.73000335693359</v>
       </c>
       <c r="B76">
-        <v>86.40000152587891</v>
+        <v>86.19999694824219</v>
       </c>
       <c r="C76">
-        <v>85.01999664306641</v>
+        <v>85.41999816894531</v>
       </c>
       <c r="D76">
-        <v>86.22000122070312</v>
+        <v>85.94999694824219</v>
       </c>
       <c r="E76">
-        <v>85.70558929443359</v>
+        <v>85.43719482421875</v>
       </c>
       <c r="F76">
-        <v>5464400</v>
+        <v>3759800</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>86.16999816894531</v>
+        <v>87.59999847412109</v>
       </c>
       <c r="B77">
-        <v>86.23999786376953</v>
+        <v>89.45999908447266</v>
       </c>
       <c r="C77">
-        <v>85.26000213623047</v>
+        <v>87.41000366210938</v>
       </c>
       <c r="D77">
-        <v>85.33000183105469</v>
+        <v>88.22000122070312</v>
       </c>
       <c r="E77">
-        <v>84.82089996337891</v>
+        <v>87.69365692138672</v>
       </c>
       <c r="F77">
-        <v>4595000</v>
+        <v>8429700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>85.18000030517578</v>
+        <v>89.12000274658203</v>
       </c>
       <c r="B78">
-        <v>85.88999938964844</v>
+        <v>89.12000274658203</v>
       </c>
       <c r="C78">
-        <v>84.45999908447266</v>
+        <v>86.94999694824219</v>
       </c>
       <c r="D78">
-        <v>84.91000366210938</v>
+        <v>87.19999694824219</v>
       </c>
       <c r="E78">
-        <v>84.40340423583984</v>
+        <v>86.67973327636719</v>
       </c>
       <c r="F78">
-        <v>3665400</v>
+        <v>5517100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>84.08999633789062</v>
+        <v>88.62999725341797</v>
       </c>
       <c r="B79">
-        <v>85.52999877929688</v>
+        <v>88.65000152587891</v>
       </c>
       <c r="C79">
-        <v>83.94000244140625</v>
+        <v>87.48999786376953</v>
       </c>
       <c r="D79">
-        <v>84.98000335693359</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="E79">
-        <v>84.47298431396484</v>
+        <v>87.12705230712891</v>
       </c>
       <c r="F79">
-        <v>3460800</v>
+        <v>4135400</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>85.62000274658203</v>
+        <v>87.37000274658203</v>
       </c>
       <c r="B80">
-        <v>85.75</v>
+        <v>87.76000213623047</v>
       </c>
       <c r="C80">
-        <v>83.30000305175781</v>
+        <v>86.66000366210938</v>
       </c>
       <c r="D80">
-        <v>83.52999877929688</v>
+        <v>86.94999694824219</v>
       </c>
       <c r="E80">
-        <v>83.03163146972656</v>
+        <v>86.43122863769531</v>
       </c>
       <c r="F80">
-        <v>4023800</v>
+        <v>4443600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>81.80000305175781</v>
+        <v>87.13999938964844</v>
       </c>
       <c r="B81">
-        <v>81.95999908447266</v>
+        <v>88.73999786376953</v>
       </c>
       <c r="C81">
-        <v>79.72000122070312</v>
+        <v>86.51000213623047</v>
       </c>
       <c r="D81">
-        <v>81.05000305175781</v>
+        <v>86.61000061035156</v>
       </c>
       <c r="E81">
-        <v>80.56643676757812</v>
+        <v>86.09326171875</v>
       </c>
       <c r="F81">
-        <v>9221300</v>
+        <v>4049200</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>81.30000305175781</v>
+        <v>86.69000244140625</v>
       </c>
       <c r="B82">
-        <v>85.12999725341797</v>
+        <v>88</v>
       </c>
       <c r="C82">
-        <v>81.01999664306641</v>
+        <v>85.33000183105469</v>
       </c>
       <c r="D82">
-        <v>84.80000305175781</v>
+        <v>87.97000122070312</v>
       </c>
       <c r="E82">
-        <v>84.29405975341797</v>
+        <v>87.44514465332031</v>
       </c>
       <c r="F82">
-        <v>7935000</v>
+        <v>4629200</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>85.26999664306641</v>
+        <v>86.87000274658203</v>
       </c>
       <c r="B83">
-        <v>86.95999908447266</v>
+        <v>87.38999938964844</v>
       </c>
       <c r="C83">
-        <v>85.05000305175781</v>
+        <v>85.65000152587891</v>
       </c>
       <c r="D83">
-        <v>86.58000183105469</v>
+        <v>85.81999969482422</v>
       </c>
       <c r="E83">
-        <v>86.06343841552734</v>
+        <v>85.30796813964844</v>
       </c>
       <c r="F83">
-        <v>5398300</v>
+        <v>5286000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>86.26999664306641</v>
+        <v>86.41000366210938</v>
       </c>
       <c r="B84">
-        <v>86.5</v>
+        <v>87.43000030517578</v>
       </c>
       <c r="C84">
-        <v>85.19000244140625</v>
+        <v>86.19000244140625</v>
       </c>
       <c r="D84">
-        <v>85.81999969482422</v>
+        <v>86.87999725341797</v>
       </c>
       <c r="E84">
-        <v>85.30796813964844</v>
+        <v>86.36164093017578</v>
       </c>
       <c r="F84">
-        <v>4124300</v>
+        <v>3604600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>86.73000335693359</v>
+        <v>87.44999694824219</v>
       </c>
       <c r="B85">
-        <v>86.73000335693359</v>
+        <v>87.98000335693359</v>
       </c>
       <c r="C85">
-        <v>85.61000061035156</v>
+        <v>87.16999816894531</v>
       </c>
       <c r="D85">
-        <v>85.80999755859375</v>
+        <v>87.58000183105469</v>
       </c>
       <c r="E85">
-        <v>85.29802703857422</v>
+        <v>87.05747222900391</v>
       </c>
       <c r="F85">
-        <v>2607600</v>
+        <v>3019700</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>85.73000335693359</v>
+        <v>87.05999755859375</v>
       </c>
       <c r="B86">
-        <v>86.19999694824219</v>
+        <v>87.43000030517578</v>
       </c>
       <c r="C86">
-        <v>85.41999816894531</v>
+        <v>86.52999877929688</v>
       </c>
       <c r="D86">
-        <v>85.94999694824219</v>
+        <v>87.08000183105469</v>
       </c>
       <c r="E86">
-        <v>85.43719482421875</v>
+        <v>86.56045532226562</v>
       </c>
       <c r="F86">
-        <v>3759800</v>
+        <v>3265600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>87.59999847412109</v>
+        <v>87.19000244140625</v>
       </c>
       <c r="B87">
-        <v>89.45999908447266</v>
+        <v>88.05999755859375</v>
       </c>
       <c r="C87">
-        <v>87.41000366210938</v>
+        <v>87</v>
       </c>
       <c r="D87">
-        <v>88.22000122070312</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="E87">
-        <v>87.69365692138672</v>
+        <v>87.12705230712891</v>
       </c>
       <c r="F87">
-        <v>8429700</v>
+        <v>2909100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>89.12000274658203</v>
+        <v>87.80999755859375</v>
       </c>
       <c r="B88">
-        <v>89.12000274658203</v>
+        <v>88.66000366210938</v>
       </c>
       <c r="C88">
-        <v>86.94999694824219</v>
+        <v>87.43000030517578</v>
       </c>
       <c r="D88">
-        <v>87.19999694824219</v>
+        <v>88.62000274658203</v>
       </c>
       <c r="E88">
-        <v>86.67973327636719</v>
+        <v>88.09127044677734</v>
       </c>
       <c r="F88">
-        <v>5517100</v>
+        <v>3724800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>88.62999725341797</v>
+        <v>88.40000152587891</v>
       </c>
       <c r="B89">
-        <v>88.65000152587891</v>
+        <v>88.66000366210938</v>
       </c>
       <c r="C89">
-        <v>87.48999786376953</v>
+        <v>87.37999725341797</v>
       </c>
       <c r="D89">
-        <v>87.65000152587891</v>
+        <v>87.98000335693359</v>
       </c>
       <c r="E89">
-        <v>87.12705230712891</v>
+        <v>87.45508575439453</v>
       </c>
       <c r="F89">
-        <v>4135400</v>
+        <v>2816500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>87.37000274658203</v>
+        <v>88.09999847412109</v>
       </c>
       <c r="B90">
-        <v>87.76000213623047</v>
+        <v>88.13999938964844</v>
       </c>
       <c r="C90">
-        <v>86.66000366210938</v>
+        <v>87.13999938964844</v>
       </c>
       <c r="D90">
-        <v>86.94999694824219</v>
+        <v>87.25</v>
       </c>
       <c r="E90">
-        <v>86.43122863769531</v>
+        <v>86.72943878173828</v>
       </c>
       <c r="F90">
-        <v>4443600</v>
+        <v>3050300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
+        <v>86.72000122070312</v>
+      </c>
+      <c r="B91">
+        <v>87.26000213623047</v>
+      </c>
+      <c r="C91">
+        <v>85.56999969482422</v>
+      </c>
+      <c r="D91">
         <v>87.13999938964844</v>
       </c>
-      <c r="B91">
-        <v>88.73999786376953</v>
-      </c>
-      <c r="C91">
-        <v>86.51000213623047</v>
-      </c>
-      <c r="D91">
-        <v>86.61000061035156</v>
-      </c>
       <c r="E91">
-        <v>86.09326171875</v>
+        <v>86.62009429931641</v>
       </c>
       <c r="F91">
-        <v>4049200</v>
+        <v>3895900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>86.69000244140625</v>
+        <v>86.40000152587891</v>
       </c>
       <c r="B92">
-        <v>88</v>
+        <v>87.16999816894531</v>
       </c>
       <c r="C92">
-        <v>85.33000183105469</v>
+        <v>85.65000152587891</v>
       </c>
       <c r="D92">
-        <v>87.97000122070312</v>
+        <v>86.61000061035156</v>
       </c>
       <c r="E92">
-        <v>87.44514465332031</v>
+        <v>86.09326171875</v>
       </c>
       <c r="F92">
-        <v>4629200</v>
+        <v>3999200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>86.87000274658203</v>
+        <v>86.05000305175781</v>
       </c>
       <c r="B93">
-        <v>87.38999938964844</v>
+        <v>86.91999816894531</v>
       </c>
       <c r="C93">
-        <v>85.65000152587891</v>
+        <v>85.41000366210938</v>
       </c>
       <c r="D93">
-        <v>85.81999969482422</v>
+        <v>85.48000335693359</v>
       </c>
       <c r="E93">
-        <v>85.30796813964844</v>
+        <v>84.97000122070312</v>
       </c>
       <c r="F93">
-        <v>5286000</v>
+        <v>4256200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>86.41000366210938</v>
+        <v>84.33000183105469</v>
       </c>
       <c r="B94">
-        <v>87.43000030517578</v>
+        <v>84.83999633789062</v>
       </c>
       <c r="C94">
-        <v>86.19000244140625</v>
+        <v>82.97000122070312</v>
       </c>
       <c r="D94">
-        <v>86.87999725341797</v>
+        <v>83.34999847412109</v>
       </c>
       <c r="E94">
-        <v>86.36164093017578</v>
+        <v>83.34999847412109</v>
       </c>
       <c r="F94">
-        <v>3604600</v>
+        <v>5707000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>87.44999694824219</v>
+        <v>83.29000091552734</v>
       </c>
       <c r="B95">
-        <v>87.98000335693359</v>
+        <v>84.48000335693359</v>
       </c>
       <c r="C95">
-        <v>87.16999816894531</v>
+        <v>83</v>
       </c>
       <c r="D95">
-        <v>87.58000183105469</v>
+        <v>84.05000305175781</v>
       </c>
       <c r="E95">
-        <v>87.05747222900391</v>
+        <v>84.05000305175781</v>
       </c>
       <c r="F95">
-        <v>3019700</v>
+        <v>4501600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>87.05999755859375</v>
+        <v>84.58000183105469</v>
       </c>
       <c r="B96">
-        <v>87.43000030517578</v>
+        <v>85.58000183105469</v>
       </c>
       <c r="C96">
-        <v>86.52999877929688</v>
+        <v>84.51000213623047</v>
       </c>
       <c r="D96">
-        <v>87.08000183105469</v>
+        <v>84.95999908447266</v>
       </c>
       <c r="E96">
-        <v>86.56045532226562</v>
+        <v>84.95999908447266</v>
       </c>
       <c r="F96">
-        <v>3265600</v>
+        <v>3367700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>87.19000244140625</v>
+        <v>85.11000061035156</v>
       </c>
       <c r="B97">
-        <v>88.05999755859375</v>
+        <v>86.08000183105469</v>
       </c>
       <c r="C97">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D97">
-        <v>87.65000152587891</v>
+        <v>85.43000030517578</v>
       </c>
       <c r="E97">
-        <v>87.12705230712891</v>
+        <v>85.43000030517578</v>
       </c>
       <c r="F97">
-        <v>2909100</v>
+        <v>4751800</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>87.80999755859375</v>
+        <v>85.62000274658203</v>
       </c>
       <c r="B98">
-        <v>88.66000366210938</v>
+        <v>86.44000244140625</v>
       </c>
       <c r="C98">
-        <v>87.43000030517578</v>
+        <v>85</v>
       </c>
       <c r="D98">
-        <v>88.62000274658203</v>
+        <v>85.73000335693359</v>
       </c>
       <c r="E98">
-        <v>88.09127044677734</v>
+        <v>85.73000335693359</v>
       </c>
       <c r="F98">
-        <v>3724800</v>
+        <v>3195200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>88.40000152587891</v>
+        <v>85.66000366210938</v>
       </c>
       <c r="B99">
-        <v>88.66000366210938</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="C99">
-        <v>87.37999725341797</v>
+        <v>84.51999664306641</v>
       </c>
       <c r="D99">
-        <v>87.98000335693359</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="E99">
-        <v>87.45508575439453</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="F99">
-        <v>2816500</v>
+        <v>2596000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>88.09999847412109</v>
+        <v>85.18000030517578</v>
       </c>
       <c r="B100">
-        <v>88.13999938964844</v>
+        <v>86.13999938964844</v>
       </c>
       <c r="C100">
-        <v>87.13999938964844</v>
+        <v>85.15000152587891</v>
       </c>
       <c r="D100">
-        <v>87.25</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="E100">
-        <v>86.72943878173828</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="F100">
-        <v>3050300</v>
+        <v>3590000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>86.72000122070312</v>
+        <v>85.48999786376953</v>
       </c>
       <c r="B101">
-        <v>87.26000213623047</v>
+        <v>85.51999664306641</v>
       </c>
       <c r="C101">
-        <v>85.56999969482422</v>
+        <v>84.69999694824219</v>
       </c>
       <c r="D101">
-        <v>87.13999938964844</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="E101">
-        <v>86.62009429931641</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="F101">
-        <v>3895900</v>
+        <v>2936800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>86.40000152587891</v>
+        <v>84.65000152587891</v>
       </c>
       <c r="B102">
-        <v>87.16999816894531</v>
+        <v>85.41999816894531</v>
       </c>
       <c r="C102">
-        <v>85.65000152587891</v>
+        <v>84.33999633789062</v>
       </c>
       <c r="D102">
-        <v>86.61000061035156</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="E102">
-        <v>86.09326171875</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="F102">
-        <v>3999200</v>
+        <v>3969600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>86.05000305175781</v>
+        <v>85.13999938964844</v>
       </c>
       <c r="B103">
-        <v>86.91999816894531</v>
+        <v>85.13999938964844</v>
       </c>
       <c r="C103">
-        <v>85.41000366210938</v>
+        <v>83.91999816894531</v>
       </c>
       <c r="D103">
-        <v>85.48000335693359</v>
+        <v>84.09999847412109</v>
       </c>
       <c r="E103">
-        <v>84.97000122070312</v>
+        <v>84.09999847412109</v>
       </c>
       <c r="F103">
-        <v>4256200</v>
+        <v>4109000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>84.33000183105469</v>
+        <v>84.19999694824219</v>
       </c>
       <c r="B104">
-        <v>84.83999633789062</v>
+        <v>84.94999694824219</v>
       </c>
       <c r="C104">
-        <v>82.97000122070312</v>
+        <v>84.12999725341797</v>
       </c>
       <c r="D104">
-        <v>83.34999847412109</v>
+        <v>84.54000091552734</v>
       </c>
       <c r="E104">
-        <v>83.34999847412109</v>
+        <v>84.54000091552734</v>
       </c>
       <c r="F104">
-        <v>5707000</v>
+        <v>3471600</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>83.29000091552734</v>
+        <v>84.37999725341797</v>
       </c>
       <c r="B105">
-        <v>84.48000335693359</v>
+        <v>84.62999725341797</v>
       </c>
       <c r="C105">
-        <v>83</v>
+        <v>83.5</v>
       </c>
       <c r="D105">
-        <v>84.05000305175781</v>
+        <v>83.65000152587891</v>
       </c>
       <c r="E105">
-        <v>84.05000305175781</v>
+        <v>83.65000152587891</v>
       </c>
       <c r="F105">
-        <v>4501600</v>
+        <v>3300100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>84.58000183105469</v>
+        <v>83.36000061035156</v>
       </c>
       <c r="B106">
-        <v>85.58000183105469</v>
+        <v>83.65000152587891</v>
       </c>
       <c r="C106">
-        <v>84.51000213623047</v>
+        <v>82.36000061035156</v>
       </c>
       <c r="D106">
-        <v>84.95999908447266</v>
+        <v>83</v>
       </c>
       <c r="E106">
-        <v>84.95999908447266</v>
+        <v>83</v>
       </c>
       <c r="F106">
-        <v>3367700</v>
+        <v>5701400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>85.11000061035156</v>
+        <v>82.83000183105469</v>
       </c>
       <c r="B107">
-        <v>86.08000183105469</v>
+        <v>83.48000335693359</v>
       </c>
       <c r="C107">
-        <v>85</v>
+        <v>82.19999694824219</v>
       </c>
       <c r="D107">
-        <v>85.43000030517578</v>
+        <v>82.87000274658203</v>
       </c>
       <c r="E107">
-        <v>85.43000030517578</v>
+        <v>82.87000274658203</v>
       </c>
       <c r="F107">
-        <v>4751800</v>
+        <v>3911400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>85.62000274658203</v>
+        <v>82.93000030517578</v>
       </c>
       <c r="B108">
-        <v>86.44000244140625</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="C108">
-        <v>85</v>
+        <v>82.73000335693359</v>
       </c>
       <c r="D108">
-        <v>85.73000335693359</v>
+        <v>83.66000366210938</v>
       </c>
       <c r="E108">
-        <v>85.73000335693359</v>
+        <v>83.66000366210938</v>
       </c>
       <c r="F108">
-        <v>3195200</v>
+        <v>4521200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>85.66000366210938</v>
+        <v>84.18000030517578</v>
       </c>
       <c r="B109">
-        <v>85.80000305175781</v>
+        <v>84.45999908447266</v>
       </c>
       <c r="C109">
-        <v>84.51999664306641</v>
+        <v>82.80000305175781</v>
       </c>
       <c r="D109">
-        <v>84.76000213623047</v>
+        <v>83</v>
       </c>
       <c r="E109">
-        <v>84.76000213623047</v>
+        <v>83</v>
       </c>
       <c r="F109">
-        <v>2596000</v>
+        <v>3893400</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>85.18000030517578</v>
+        <v>83.77999877929688</v>
       </c>
       <c r="B110">
-        <v>86.13999938964844</v>
+        <v>84.23000335693359</v>
       </c>
       <c r="C110">
-        <v>85.15000152587891</v>
+        <v>82.76000213623047</v>
       </c>
       <c r="D110">
-        <v>85.40000152587891</v>
+        <v>83.63999938964844</v>
       </c>
       <c r="E110">
-        <v>85.40000152587891</v>
+        <v>83.63999938964844</v>
       </c>
       <c r="F110">
-        <v>3590000</v>
+        <v>4768000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>85.48999786376953</v>
+        <v>83.80000305175781</v>
       </c>
       <c r="B111">
-        <v>85.51999664306641</v>
+        <v>83.83999633789062</v>
       </c>
       <c r="C111">
-        <v>84.69999694824219</v>
+        <v>82.26000213623047</v>
       </c>
       <c r="D111">
-        <v>84.80000305175781</v>
+        <v>82.73999786376953</v>
       </c>
       <c r="E111">
-        <v>84.80000305175781</v>
+        <v>82.73999786376953</v>
       </c>
       <c r="F111">
-        <v>2936800</v>
+        <v>5253300</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>84.65000152587891</v>
+        <v>83.18000030517578</v>
       </c>
       <c r="B112">
-        <v>85.41999816894531</v>
+        <v>85.05999755859375</v>
       </c>
       <c r="C112">
-        <v>84.33999633789062</v>
+        <v>82.83000183105469</v>
       </c>
       <c r="D112">
-        <v>84.76000213623047</v>
+        <v>84.87000274658203</v>
       </c>
       <c r="E112">
-        <v>84.76000213623047</v>
+        <v>84.87000274658203</v>
       </c>
       <c r="F112">
-        <v>3969600</v>
+        <v>5673400</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>85.13999938964844</v>
+        <v>84.94000244140625</v>
       </c>
       <c r="B113">
-        <v>85.13999938964844</v>
+        <v>85.12999725341797</v>
       </c>
       <c r="C113">
-        <v>83.91999816894531</v>
+        <v>83.87999725341797</v>
       </c>
       <c r="D113">
-        <v>84.09999847412109</v>
+        <v>84.01999664306641</v>
       </c>
       <c r="E113">
-        <v>84.09999847412109</v>
+        <v>84.01999664306641</v>
       </c>
       <c r="F113">
-        <v>4109000</v>
+        <v>5907500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>84.19999694824219</v>
+        <v>83.58999633789062</v>
       </c>
       <c r="B114">
-        <v>84.94999694824219</v>
+        <v>84.01000213623047</v>
       </c>
       <c r="C114">
-        <v>84.12999725341797</v>
+        <v>82.37000274658203</v>
       </c>
       <c r="D114">
-        <v>84.54000091552734</v>
+        <v>83.38999938964844</v>
       </c>
       <c r="E114">
-        <v>84.54000091552734</v>
+        <v>83.38999938964844</v>
       </c>
       <c r="F114">
-        <v>3471600</v>
+        <v>23128700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>84.37999725341797</v>
+        <v>81.90000152587891</v>
       </c>
       <c r="B115">
-        <v>84.62999725341797</v>
+        <v>83.59999847412109</v>
       </c>
       <c r="C115">
-        <v>83.5</v>
+        <v>81.51999664306641</v>
       </c>
       <c r="D115">
-        <v>83.65000152587891</v>
+        <v>83.44999694824219</v>
       </c>
       <c r="E115">
-        <v>83.65000152587891</v>
+        <v>83.44999694824219</v>
       </c>
       <c r="F115">
-        <v>3300100</v>
+        <v>8217100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>83.36000061035156</v>
+        <v>83.68000030517578</v>
       </c>
       <c r="B116">
-        <v>83.65000152587891</v>
+        <v>84.15000152587891</v>
       </c>
       <c r="C116">
-        <v>82.36000061035156</v>
+        <v>82.66999816894531</v>
       </c>
       <c r="D116">
-        <v>83</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="E116">
-        <v>83</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="F116">
-        <v>5701400</v>
+        <v>5900300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>82.83000183105469</v>
+        <v>83.97000122070312</v>
       </c>
       <c r="B117">
-        <v>83.48000335693359</v>
+        <v>85.95999908447266</v>
       </c>
       <c r="C117">
-        <v>82.19999694824219</v>
+        <v>83.61000061035156</v>
       </c>
       <c r="D117">
-        <v>82.87000274658203</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="E117">
-        <v>82.87000274658203</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="F117">
-        <v>3911400</v>
+        <v>6233700</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>82.93000030517578</v>
+        <v>85.58000183105469</v>
       </c>
       <c r="B118">
-        <v>84.34999847412109</v>
+        <v>87</v>
       </c>
       <c r="C118">
-        <v>82.73000335693359</v>
+        <v>85.51000213623047</v>
       </c>
       <c r="D118">
-        <v>83.66000366210938</v>
+        <v>86.75</v>
       </c>
       <c r="E118">
-        <v>83.66000366210938</v>
+        <v>86.75</v>
       </c>
       <c r="F118">
-        <v>4521200</v>
+        <v>5906800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>84.18000030517578</v>
+        <v>86.56999969482422</v>
       </c>
       <c r="B119">
-        <v>84.45999908447266</v>
+        <v>87.66999816894531</v>
       </c>
       <c r="C119">
-        <v>82.80000305175781</v>
+        <v>86.36000061035156</v>
       </c>
       <c r="D119">
-        <v>83</v>
+        <v>87.16000366210938</v>
       </c>
       <c r="E119">
-        <v>83</v>
+        <v>87.16000366210938</v>
       </c>
       <c r="F119">
-        <v>3893400</v>
+        <v>4665900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>83.77999877929688</v>
+        <v>87.73000335693359</v>
       </c>
       <c r="B120">
-        <v>84.23000335693359</v>
+        <v>88.47000122070312</v>
       </c>
       <c r="C120">
-        <v>82.76000213623047</v>
+        <v>87.23000335693359</v>
       </c>
       <c r="D120">
-        <v>83.63999938964844</v>
+        <v>87.33999633789062</v>
       </c>
       <c r="E120">
-        <v>83.63999938964844</v>
+        <v>87.33999633789062</v>
       </c>
       <c r="F120">
-        <v>4768000</v>
+        <v>4162100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>83.80000305175781</v>
+        <v>87.09999847412109</v>
       </c>
       <c r="B121">
-        <v>83.83999633789062</v>
+        <v>87.73000335693359</v>
       </c>
       <c r="C121">
-        <v>82.26000213623047</v>
+        <v>86.47000122070312</v>
       </c>
       <c r="D121">
-        <v>82.73999786376953</v>
+        <v>86.83999633789062</v>
       </c>
       <c r="E121">
-        <v>82.73999786376953</v>
+        <v>86.83999633789062</v>
       </c>
       <c r="F121">
-        <v>5253300</v>
+        <v>5781200</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>83.18000030517578</v>
+        <v>87.16999816894531</v>
       </c>
       <c r="B122">
-        <v>85.05999755859375</v>
+        <v>87.81999969482422</v>
       </c>
       <c r="C122">
-        <v>82.83000183105469</v>
+        <v>86.69000244140625</v>
       </c>
       <c r="D122">
-        <v>84.87000274658203</v>
+        <v>86.98999786376953</v>
       </c>
       <c r="E122">
-        <v>84.87000274658203</v>
+        <v>86.98999786376953</v>
       </c>
       <c r="F122">
-        <v>5673400</v>
+        <v>3612600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>84.94000244140625</v>
+        <v>87.48999786376953</v>
       </c>
       <c r="B123">
-        <v>85.12999725341797</v>
+        <v>87.5</v>
       </c>
       <c r="C123">
-        <v>83.87999725341797</v>
+        <v>85.86000061035156</v>
       </c>
       <c r="D123">
-        <v>84.01999664306641</v>
+        <v>85.95999908447266</v>
       </c>
       <c r="E123">
-        <v>84.01999664306641</v>
+        <v>85.95999908447266</v>
       </c>
       <c r="F123">
-        <v>5907500</v>
+        <v>5642900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>83.58999633789062</v>
+        <v>86.80000305175781</v>
       </c>
       <c r="B124">
-        <v>84.01000213623047</v>
+        <v>87.93000030517578</v>
       </c>
       <c r="C124">
-        <v>82.37000274658203</v>
+        <v>86.13999938964844</v>
       </c>
       <c r="D124">
-        <v>83.38999938964844</v>
+        <v>87.48000335693359</v>
       </c>
       <c r="E124">
-        <v>83.38999938964844</v>
+        <v>87.48000335693359</v>
       </c>
       <c r="F124">
-        <v>23128700</v>
+        <v>5499500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>81.90000152587891</v>
+        <v>87</v>
       </c>
       <c r="B125">
-        <v>83.59999847412109</v>
+        <v>88</v>
       </c>
       <c r="C125">
-        <v>81.51999664306641</v>
+        <v>86.43000030517578</v>
       </c>
       <c r="D125">
-        <v>83.44999694824219</v>
+        <v>87.69000244140625</v>
       </c>
       <c r="E125">
-        <v>83.44999694824219</v>
+        <v>87.69000244140625</v>
       </c>
       <c r="F125">
-        <v>8217100</v>
+        <v>5490600</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>83.68000030517578</v>
+        <v>88</v>
       </c>
       <c r="B126">
-        <v>84.15000152587891</v>
+        <v>89.48999786376953</v>
       </c>
       <c r="C126">
-        <v>82.66999816894531</v>
+        <v>87.73000335693359</v>
       </c>
       <c r="D126">
-        <v>83.11000061035156</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="E126">
-        <v>83.11000061035156</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="F126">
-        <v>5900300</v>
+        <v>4820500</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>83.97000122070312</v>
+        <v>88.19999694824219</v>
       </c>
       <c r="B127">
-        <v>85.95999908447266</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="C127">
-        <v>83.61000061035156</v>
+        <v>87.44999694824219</v>
       </c>
       <c r="D127">
-        <v>85.26999664306641</v>
+        <v>89.26999664306641</v>
       </c>
       <c r="E127">
-        <v>85.26999664306641</v>
+        <v>89.26999664306641</v>
       </c>
       <c r="F127">
-        <v>6233700</v>
+        <v>4354100</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>85.58000183105469</v>
+        <v>89.88999938964844</v>
       </c>
       <c r="B128">
-        <v>87</v>
+        <v>90.62999725341797</v>
       </c>
       <c r="C128">
-        <v>85.51000213623047</v>
+        <v>89.75</v>
       </c>
       <c r="D128">
-        <v>86.75</v>
+        <v>90.15000152587891</v>
       </c>
       <c r="E128">
-        <v>86.75</v>
+        <v>90.15000152587891</v>
       </c>
       <c r="F128">
-        <v>5906800</v>
+        <v>3750900</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>86.56999969482422</v>
+        <v>90.30000305175781</v>
       </c>
       <c r="B129">
-        <v>87.66999816894531</v>
+        <v>90.83000183105469</v>
       </c>
       <c r="C129">
-        <v>86.36000061035156</v>
+        <v>89.73999786376953</v>
       </c>
       <c r="D129">
-        <v>87.16000366210938</v>
+        <v>90.62000274658203</v>
       </c>
       <c r="E129">
-        <v>87.16000366210938</v>
+        <v>90.62000274658203</v>
       </c>
       <c r="F129">
-        <v>4665200</v>
+        <v>3342700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/RTX/RTX_HighLow.xlsx
+++ b/Stocks/RTX/RTX_HighLow.xlsx
@@ -417,1173 +417,1173 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>78.54000091552734</v>
+        <v>78.12000274658203</v>
       </c>
       <c r="B2">
-        <v>78.87999725341797</v>
+        <v>78.73000335693359</v>
       </c>
       <c r="C2">
-        <v>77.65000152587891</v>
+        <v>77.73999786376953</v>
       </c>
       <c r="D2">
-        <v>78.29000091552734</v>
+        <v>78.58999633789062</v>
       </c>
       <c r="E2">
-        <v>77.35710906982422</v>
+        <v>77.65353393554688</v>
       </c>
       <c r="F2">
-        <v>5423400</v>
+        <v>6265600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>78.25</v>
+        <v>77.80000305175781</v>
       </c>
       <c r="B3">
-        <v>78.81999969482422</v>
+        <v>77.91000366210938</v>
       </c>
       <c r="C3">
-        <v>78.12999725341797</v>
+        <v>76.06999969482422</v>
       </c>
       <c r="D3">
-        <v>78.72000122070312</v>
+        <v>77.08999633789062</v>
       </c>
       <c r="E3">
-        <v>77.78199005126953</v>
+        <v>76.17140197753906</v>
       </c>
       <c r="F3">
-        <v>5485800</v>
+        <v>8692700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>78</v>
+        <v>76.80999755859375</v>
       </c>
       <c r="B4">
-        <v>78.08000183105469</v>
+        <v>78.94000244140625</v>
       </c>
       <c r="C4">
-        <v>76.73999786376953</v>
+        <v>76.40000152587891</v>
       </c>
       <c r="D4">
-        <v>77.69999694824219</v>
+        <v>78.87000274658203</v>
       </c>
       <c r="E4">
-        <v>76.77413940429688</v>
+        <v>77.93019866943359</v>
       </c>
       <c r="F4">
-        <v>5490700</v>
+        <v>5186900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>78</v>
+        <v>78.98999786376953</v>
       </c>
       <c r="B5">
-        <v>78.69000244140625</v>
+        <v>79.91000366210938</v>
       </c>
       <c r="C5">
-        <v>77.76999664306641</v>
+        <v>78.55000305175781</v>
       </c>
       <c r="D5">
-        <v>77.95999908447266</v>
+        <v>78.73999786376953</v>
       </c>
       <c r="E5">
-        <v>77.03104400634766</v>
+        <v>77.80175018310547</v>
       </c>
       <c r="F5">
-        <v>4855200</v>
+        <v>6706800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>78.16000366210938</v>
+        <v>78.80999755859375</v>
       </c>
       <c r="B6">
-        <v>78.27999877929688</v>
+        <v>80.76000213623047</v>
       </c>
       <c r="C6">
-        <v>76.98000335693359</v>
+        <v>78.80999755859375</v>
       </c>
       <c r="D6">
-        <v>77.97000122070312</v>
+        <v>80.54000091552734</v>
       </c>
       <c r="E6">
-        <v>77.04092407226562</v>
+        <v>79.58029937744141</v>
       </c>
       <c r="F6">
-        <v>5106500</v>
+        <v>7139200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>78.58999633789062</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>78.58999633789062</v>
+        <v>82.06999969482422</v>
       </c>
       <c r="C7">
-        <v>77.05000305175781</v>
+        <v>80.80000305175781</v>
       </c>
       <c r="D7">
-        <v>78.22000122070312</v>
+        <v>81</v>
       </c>
       <c r="E7">
-        <v>77.28794860839844</v>
+        <v>80.03482055664062</v>
       </c>
       <c r="F7">
-        <v>7629700</v>
+        <v>12145600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>78.12000274658203</v>
+        <v>82.76000213623047</v>
       </c>
       <c r="B8">
-        <v>78.73000335693359</v>
+        <v>83.69000244140625</v>
       </c>
       <c r="C8">
-        <v>77.73999786376953</v>
+        <v>80.87999725341797</v>
       </c>
       <c r="D8">
-        <v>78.58999633789062</v>
+        <v>82.80999755859375</v>
       </c>
       <c r="E8">
-        <v>77.65353393554688</v>
+        <v>81.82324981689453</v>
       </c>
       <c r="F8">
-        <v>6265600</v>
+        <v>11082400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>77.80000305175781</v>
+        <v>81.48000335693359</v>
       </c>
       <c r="B9">
-        <v>77.91000366210938</v>
+        <v>83.12000274658203</v>
       </c>
       <c r="C9">
-        <v>76.06999969482422</v>
+        <v>81.48000335693359</v>
       </c>
       <c r="D9">
-        <v>77.08999633789062</v>
+        <v>83.08000183105469</v>
       </c>
       <c r="E9">
-        <v>76.17140960693359</v>
+        <v>82.09003448486328</v>
       </c>
       <c r="F9">
-        <v>8692700</v>
+        <v>7164200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>76.80999755859375</v>
+        <v>83.55999755859375</v>
       </c>
       <c r="B10">
-        <v>78.94000244140625</v>
+        <v>83.80000305175781</v>
       </c>
       <c r="C10">
-        <v>76.40000152587891</v>
+        <v>82.51000213623047</v>
       </c>
       <c r="D10">
-        <v>78.87000274658203</v>
+        <v>82.87000274658203</v>
       </c>
       <c r="E10">
-        <v>77.93020629882812</v>
+        <v>81.88253784179688</v>
       </c>
       <c r="F10">
-        <v>5186900</v>
+        <v>6237000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>78.98999786376953</v>
+        <v>82.55000305175781</v>
       </c>
       <c r="B11">
-        <v>79.91000366210938</v>
+        <v>83.41000366210938</v>
       </c>
       <c r="C11">
-        <v>78.55000305175781</v>
+        <v>82.34999847412109</v>
       </c>
       <c r="D11">
-        <v>78.73999786376953</v>
+        <v>83.23999786376953</v>
       </c>
       <c r="E11">
-        <v>77.80175018310547</v>
+        <v>82.24812316894531</v>
       </c>
       <c r="F11">
-        <v>6706800</v>
+        <v>5616000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>78.80999755859375</v>
+        <v>83.80000305175781</v>
       </c>
       <c r="B12">
-        <v>80.76000213623047</v>
+        <v>84.44999694824219</v>
       </c>
       <c r="C12">
-        <v>78.80999755859375</v>
+        <v>83.27999877929688</v>
       </c>
       <c r="D12">
-        <v>80.54000091552734</v>
+        <v>84.13999938964844</v>
       </c>
       <c r="E12">
-        <v>79.58029937744141</v>
+        <v>83.13740539550781</v>
       </c>
       <c r="F12">
-        <v>7139200</v>
+        <v>5828800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>81</v>
+        <v>84.12000274658203</v>
       </c>
       <c r="B13">
-        <v>82.06999969482422</v>
+        <v>84.58999633789062</v>
       </c>
       <c r="C13">
-        <v>80.80000305175781</v>
+        <v>83.15000152587891</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>83.94000244140625</v>
       </c>
       <c r="E13">
-        <v>80.03482055664062</v>
+        <v>82.93979644775391</v>
       </c>
       <c r="F13">
-        <v>12145600</v>
+        <v>9306900</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>82.76000213623047</v>
+        <v>83.62999725341797</v>
       </c>
       <c r="B14">
-        <v>83.69000244140625</v>
+        <v>84.66999816894531</v>
       </c>
       <c r="C14">
-        <v>80.87999725341797</v>
+        <v>83.54000091552734</v>
       </c>
       <c r="D14">
-        <v>82.80999755859375</v>
+        <v>84.12999725341797</v>
       </c>
       <c r="E14">
-        <v>81.82324981689453</v>
+        <v>83.12751770019531</v>
       </c>
       <c r="F14">
-        <v>11082400</v>
+        <v>4658200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>81.48000335693359</v>
+        <v>84.80999755859375</v>
       </c>
       <c r="B15">
-        <v>83.12000274658203</v>
+        <v>84.90000152587891</v>
       </c>
       <c r="C15">
-        <v>81.48000335693359</v>
+        <v>83.52999877929688</v>
       </c>
       <c r="D15">
-        <v>83.08000183105469</v>
+        <v>84.68000030517578</v>
       </c>
       <c r="E15">
-        <v>82.09003448486328</v>
+        <v>83.67097473144531</v>
       </c>
       <c r="F15">
-        <v>7164200</v>
+        <v>4903900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>83.55999755859375</v>
+        <v>84.80999755859375</v>
       </c>
       <c r="B16">
-        <v>83.80000305175781</v>
+        <v>85.93000030517578</v>
       </c>
       <c r="C16">
-        <v>82.51000213623047</v>
+        <v>84.13999938964844</v>
       </c>
       <c r="D16">
-        <v>82.87000274658203</v>
+        <v>85.70999908447266</v>
       </c>
       <c r="E16">
-        <v>81.88253784179688</v>
+        <v>84.68869018554688</v>
       </c>
       <c r="F16">
-        <v>6237000</v>
+        <v>6056000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>82.55000305175781</v>
+        <v>86.86000061035156</v>
       </c>
       <c r="B17">
-        <v>83.41000366210938</v>
+        <v>87.04000091552734</v>
       </c>
       <c r="C17">
-        <v>82.34999847412109</v>
+        <v>84.93000030517578</v>
       </c>
       <c r="D17">
-        <v>83.23999786376953</v>
+        <v>85.04000091552734</v>
       </c>
       <c r="E17">
-        <v>82.24813079833984</v>
+        <v>84.02667999267578</v>
       </c>
       <c r="F17">
-        <v>5616000</v>
+        <v>9042600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>83.80000305175781</v>
+        <v>84.23999786376953</v>
       </c>
       <c r="B18">
-        <v>84.44999694824219</v>
+        <v>85.19999694824219</v>
       </c>
       <c r="C18">
-        <v>83.27999877929688</v>
+        <v>83.34999847412109</v>
       </c>
       <c r="D18">
-        <v>84.13999938964844</v>
+        <v>84.33000183105469</v>
       </c>
       <c r="E18">
-        <v>83.13740539550781</v>
+        <v>83.32514190673828</v>
       </c>
       <c r="F18">
-        <v>5828800</v>
+        <v>6708100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>84.12000274658203</v>
+        <v>84.23000335693359</v>
       </c>
       <c r="B19">
-        <v>84.58999633789062</v>
+        <v>84.86000061035156</v>
       </c>
       <c r="C19">
-        <v>83.15000152587891</v>
+        <v>82.22000122070312</v>
       </c>
       <c r="D19">
-        <v>83.94000244140625</v>
+        <v>82.27999877929688</v>
       </c>
       <c r="E19">
-        <v>82.93978881835938</v>
+        <v>81.29956817626953</v>
       </c>
       <c r="F19">
-        <v>9306900</v>
+        <v>6086800</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>83.62999725341797</v>
+        <v>82.30000305175781</v>
       </c>
       <c r="B20">
-        <v>84.66999816894531</v>
+        <v>84.27999877929688</v>
       </c>
       <c r="C20">
-        <v>83.54000091552734</v>
+        <v>82.13999938964844</v>
       </c>
       <c r="D20">
-        <v>84.12999725341797</v>
+        <v>83.77999877929688</v>
       </c>
       <c r="E20">
-        <v>83.12752532958984</v>
+        <v>82.78169250488281</v>
       </c>
       <c r="F20">
-        <v>4658200</v>
+        <v>4701200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>84.80999755859375</v>
+        <v>84.44999694824219</v>
       </c>
       <c r="B21">
-        <v>84.90000152587891</v>
+        <v>86.06999969482422</v>
       </c>
       <c r="C21">
-        <v>83.52999877929688</v>
+        <v>84.36000061035156</v>
       </c>
       <c r="D21">
-        <v>84.68000030517578</v>
+        <v>85.87999725341797</v>
       </c>
       <c r="E21">
-        <v>83.67096710205078</v>
+        <v>84.85667419433594</v>
       </c>
       <c r="F21">
-        <v>4903900</v>
+        <v>4989200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>84.80999755859375</v>
+        <v>85.05999755859375</v>
       </c>
       <c r="B22">
-        <v>85.93000030517578</v>
+        <v>86.56999969482422</v>
       </c>
       <c r="C22">
-        <v>84.13999938964844</v>
+        <v>85.05999755859375</v>
       </c>
       <c r="D22">
-        <v>85.70999908447266</v>
+        <v>86.56999969482422</v>
       </c>
       <c r="E22">
-        <v>84.68869781494141</v>
+        <v>85.5384521484375</v>
       </c>
       <c r="F22">
-        <v>6056000</v>
+        <v>5059800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>86.86000061035156</v>
+        <v>86.19999694824219</v>
       </c>
       <c r="B23">
-        <v>87.04000091552734</v>
+        <v>86.95999908447266</v>
       </c>
       <c r="C23">
-        <v>84.93000030517578</v>
+        <v>85.34999847412109</v>
       </c>
       <c r="D23">
-        <v>85.04000091552734</v>
+        <v>85.37999725341797</v>
       </c>
       <c r="E23">
-        <v>84.02667999267578</v>
+        <v>84.36263275146484</v>
       </c>
       <c r="F23">
-        <v>9042600</v>
+        <v>7438300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>84.23999786376953</v>
+        <v>84.83999633789062</v>
       </c>
       <c r="B24">
-        <v>85.19999694824219</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="C24">
-        <v>83.34999847412109</v>
+        <v>83.58000183105469</v>
       </c>
       <c r="D24">
-        <v>84.33000183105469</v>
+        <v>85.20999908447266</v>
       </c>
       <c r="E24">
-        <v>83.32514190673828</v>
+        <v>84.19464874267578</v>
       </c>
       <c r="F24">
-        <v>6708100</v>
+        <v>9296500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>84.23000335693359</v>
+        <v>84.73999786376953</v>
       </c>
       <c r="B25">
-        <v>84.86000061035156</v>
+        <v>85.55999755859375</v>
       </c>
       <c r="C25">
-        <v>82.22000122070312</v>
+        <v>84.08999633789062</v>
       </c>
       <c r="D25">
-        <v>82.27999877929688</v>
+        <v>85.23000335693359</v>
       </c>
       <c r="E25">
-        <v>81.29956817626953</v>
+        <v>84.72149658203125</v>
       </c>
       <c r="F25">
-        <v>6086800</v>
+        <v>10059900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>82.30000305175781</v>
+        <v>85.84999847412109</v>
       </c>
       <c r="B26">
-        <v>84.27999877929688</v>
+        <v>87.09999847412109</v>
       </c>
       <c r="C26">
-        <v>82.13999938964844</v>
+        <v>85.55000305175781</v>
       </c>
       <c r="D26">
-        <v>83.77999877929688</v>
+        <v>85.80999755859375</v>
       </c>
       <c r="E26">
-        <v>82.78169250488281</v>
+        <v>85.29802703857422</v>
       </c>
       <c r="F26">
-        <v>4701200</v>
+        <v>5803800</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>84.44999694824219</v>
+        <v>86.48999786376953</v>
       </c>
       <c r="B27">
-        <v>86.06999969482422</v>
+        <v>86.94999694824219</v>
       </c>
       <c r="C27">
-        <v>84.36000061035156</v>
+        <v>86</v>
       </c>
       <c r="D27">
-        <v>85.87999725341797</v>
+        <v>86.48000335693359</v>
       </c>
       <c r="E27">
-        <v>84.85666656494141</v>
+        <v>85.96403503417969</v>
       </c>
       <c r="F27">
-        <v>4989200</v>
+        <v>5113300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>85.05999755859375</v>
+        <v>86.62999725341797</v>
       </c>
       <c r="B28">
-        <v>86.56999969482422</v>
+        <v>87.27999877929688</v>
       </c>
       <c r="C28">
-        <v>85.05999755859375</v>
+        <v>85.98999786376953</v>
       </c>
       <c r="D28">
-        <v>86.56999969482422</v>
+        <v>86.26000213623047</v>
       </c>
       <c r="E28">
-        <v>85.5384521484375</v>
+        <v>85.74534606933594</v>
       </c>
       <c r="F28">
-        <v>5059800</v>
+        <v>7606300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>86.19999694824219</v>
+        <v>86.33000183105469</v>
       </c>
       <c r="B29">
-        <v>86.95999908447266</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="C29">
-        <v>85.34999847412109</v>
+        <v>86</v>
       </c>
       <c r="D29">
-        <v>85.37999725341797</v>
+        <v>86.5</v>
       </c>
       <c r="E29">
-        <v>84.36262512207031</v>
+        <v>85.98391723632812</v>
       </c>
       <c r="F29">
-        <v>7438300</v>
+        <v>4826200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>84.83999633789062</v>
+        <v>88.5</v>
       </c>
       <c r="B30">
-        <v>85.26999664306641</v>
+        <v>88.80999755859375</v>
       </c>
       <c r="C30">
-        <v>83.58000183105469</v>
+        <v>87.70999908447266</v>
       </c>
       <c r="D30">
-        <v>85.20999908447266</v>
+        <v>88.61000061035156</v>
       </c>
       <c r="E30">
-        <v>84.19464874267578</v>
+        <v>88.08132934570312</v>
       </c>
       <c r="F30">
-        <v>9296500</v>
+        <v>10492200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>84.73999786376953</v>
+        <v>88.40000152587891</v>
       </c>
       <c r="B31">
-        <v>85.55999755859375</v>
+        <v>88.83000183105469</v>
       </c>
       <c r="C31">
-        <v>84.08999633789062</v>
+        <v>88.04000091552734</v>
       </c>
       <c r="D31">
-        <v>85.23000335693359</v>
+        <v>88.70999908447266</v>
       </c>
       <c r="E31">
-        <v>84.72149658203125</v>
+        <v>88.18072509765625</v>
       </c>
       <c r="F31">
-        <v>10059900</v>
+        <v>4850300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>85.84999847412109</v>
+        <v>89.80999755859375</v>
       </c>
       <c r="B32">
-        <v>87.09999847412109</v>
+        <v>89.93000030517578</v>
       </c>
       <c r="C32">
-        <v>85.55000305175781</v>
+        <v>88.83999633789062</v>
       </c>
       <c r="D32">
-        <v>85.80999755859375</v>
+        <v>88.98999786376953</v>
       </c>
       <c r="E32">
-        <v>85.29802703857422</v>
+        <v>88.45905303955078</v>
       </c>
       <c r="F32">
-        <v>5803800</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>86.48999786376953</v>
+        <v>89.25</v>
       </c>
       <c r="B33">
-        <v>86.94999694824219</v>
+        <v>89.25</v>
       </c>
       <c r="C33">
-        <v>86</v>
+        <v>88.44999694824219</v>
       </c>
       <c r="D33">
-        <v>86.48000335693359</v>
+        <v>88.62999725341797</v>
       </c>
       <c r="E33">
-        <v>85.96403503417969</v>
+        <v>88.10120391845703</v>
       </c>
       <c r="F33">
-        <v>5113300</v>
+        <v>4429100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>86.62999725341797</v>
+        <v>88.11000061035156</v>
       </c>
       <c r="B34">
-        <v>87.27999877929688</v>
+        <v>88.97000122070312</v>
       </c>
       <c r="C34">
-        <v>85.98999786376953</v>
+        <v>87.88999938964844</v>
       </c>
       <c r="D34">
-        <v>86.26000213623047</v>
+        <v>88.68000030517578</v>
       </c>
       <c r="E34">
-        <v>85.74534606933594</v>
+        <v>88.15090942382812</v>
       </c>
       <c r="F34">
-        <v>7606300</v>
+        <v>4083200</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>86.33000183105469</v>
+        <v>88.65000152587891</v>
       </c>
       <c r="B35">
-        <v>86.73000335693359</v>
+        <v>89.23999786376953</v>
       </c>
       <c r="C35">
-        <v>86</v>
+        <v>88.55000305175781</v>
       </c>
       <c r="D35">
-        <v>86.5</v>
+        <v>89.01999664306641</v>
       </c>
       <c r="E35">
-        <v>85.98391723632812</v>
+        <v>88.48887634277344</v>
       </c>
       <c r="F35">
-        <v>4826200</v>
+        <v>4082800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>88.5</v>
+        <v>88.97000122070312</v>
       </c>
       <c r="B36">
-        <v>88.80999755859375</v>
+        <v>89.15000152587891</v>
       </c>
       <c r="C36">
-        <v>87.70999908447266</v>
+        <v>88.48000335693359</v>
       </c>
       <c r="D36">
-        <v>88.61000061035156</v>
+        <v>88.97000122070312</v>
       </c>
       <c r="E36">
-        <v>88.08132934570312</v>
+        <v>88.43917846679688</v>
       </c>
       <c r="F36">
-        <v>10492200</v>
+        <v>5693900</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>88.40000152587891</v>
+        <v>89.19999694824219</v>
       </c>
       <c r="B37">
-        <v>88.83000183105469</v>
+        <v>89.77999877929688</v>
       </c>
       <c r="C37">
-        <v>88.04000091552734</v>
+        <v>88.76000213623047</v>
       </c>
       <c r="D37">
-        <v>88.70999908447266</v>
+        <v>89.44999694824219</v>
       </c>
       <c r="E37">
-        <v>88.18072509765625</v>
+        <v>88.91631317138672</v>
       </c>
       <c r="F37">
-        <v>4850300</v>
+        <v>4777000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>89.80999755859375</v>
+        <v>89.36000061035156</v>
       </c>
       <c r="B38">
-        <v>89.93000030517578</v>
+        <v>89.56999969482422</v>
       </c>
       <c r="C38">
-        <v>88.83999633789062</v>
+        <v>88.81999969482422</v>
       </c>
       <c r="D38">
-        <v>88.98999786376953</v>
+        <v>88.84999847412109</v>
       </c>
       <c r="E38">
-        <v>88.45905303955078</v>
+        <v>88.31989288330078</v>
       </c>
       <c r="F38">
-        <v>4302200</v>
+        <v>4594500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>89.25</v>
+        <v>89.80000305175781</v>
       </c>
       <c r="B39">
-        <v>89.25</v>
+        <v>89.98000335693359</v>
       </c>
       <c r="C39">
-        <v>88.44999694824219</v>
+        <v>88.16000366210938</v>
       </c>
       <c r="D39">
-        <v>88.62999725341797</v>
+        <v>88.25</v>
       </c>
       <c r="E39">
-        <v>88.10120391845703</v>
+        <v>87.72347259521484</v>
       </c>
       <c r="F39">
-        <v>4429100</v>
+        <v>4826300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>88.11000061035156</v>
+        <v>88.69999694824219</v>
       </c>
       <c r="B40">
         <v>88.97000122070312</v>
       </c>
       <c r="C40">
-        <v>87.88999938964844</v>
+        <v>88.16999816894531</v>
       </c>
       <c r="D40">
-        <v>88.68000030517578</v>
+        <v>88.80999755859375</v>
       </c>
       <c r="E40">
-        <v>88.15090942382812</v>
+        <v>88.28012847900391</v>
       </c>
       <c r="F40">
-        <v>4083200</v>
+        <v>4082700</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>88.65000152587891</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="B41">
-        <v>89.23999786376953</v>
+        <v>89.19000244140625</v>
       </c>
       <c r="C41">
-        <v>88.55000305175781</v>
+        <v>88.25</v>
       </c>
       <c r="D41">
-        <v>89.01999664306641</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="E41">
-        <v>88.48887634277344</v>
+        <v>88.190673828125</v>
       </c>
       <c r="F41">
-        <v>4082800</v>
+        <v>5924900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>88.97000122070312</v>
+        <v>88.94999694824219</v>
       </c>
       <c r="B42">
-        <v>89.15000152587891</v>
+        <v>89.80000305175781</v>
       </c>
       <c r="C42">
-        <v>88.48000335693359</v>
+        <v>88.80000305175781</v>
       </c>
       <c r="D42">
-        <v>88.97000122070312</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="E42">
-        <v>88.43917846679688</v>
+        <v>88.86661529541016</v>
       </c>
       <c r="F42">
-        <v>5693900</v>
+        <v>5336700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>89.19999694824219</v>
+        <v>89.23000335693359</v>
       </c>
       <c r="B43">
-        <v>89.77999877929688</v>
+        <v>89.43000030517578</v>
       </c>
       <c r="C43">
-        <v>88.76000213623047</v>
+        <v>87.94999694824219</v>
       </c>
       <c r="D43">
-        <v>89.44999694824219</v>
+        <v>88.43000030517578</v>
       </c>
       <c r="E43">
-        <v>88.91631317138672</v>
+        <v>87.90239715576172</v>
       </c>
       <c r="F43">
-        <v>4777000</v>
+        <v>8033800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>89.36000061035156</v>
+        <v>88.48000335693359</v>
       </c>
       <c r="B44">
-        <v>89.56999969482422</v>
+        <v>88.73000335693359</v>
       </c>
       <c r="C44">
-        <v>88.81999969482422</v>
+        <v>86.31999969482422</v>
       </c>
       <c r="D44">
-        <v>88.84999847412109</v>
+        <v>87.12999725341797</v>
       </c>
       <c r="E44">
-        <v>88.31989288330078</v>
+        <v>86.61015319824219</v>
       </c>
       <c r="F44">
-        <v>4594500</v>
+        <v>7480500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>89.80000305175781</v>
+        <v>85.90000152587891</v>
       </c>
       <c r="B45">
-        <v>89.98000335693359</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="C45">
-        <v>88.16000366210938</v>
+        <v>85.62000274658203</v>
       </c>
       <c r="D45">
-        <v>88.25</v>
+        <v>85.91999816894531</v>
       </c>
       <c r="E45">
-        <v>87.72347259521484</v>
+        <v>85.40737152099609</v>
       </c>
       <c r="F45">
-        <v>4826300</v>
+        <v>10387200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>88.69999694824219</v>
+        <v>86.75</v>
       </c>
       <c r="B46">
-        <v>88.97000122070312</v>
+        <v>88.13999938964844</v>
       </c>
       <c r="C46">
-        <v>88.16999816894531</v>
+        <v>86.51999664306641</v>
       </c>
       <c r="D46">
-        <v>88.80999755859375</v>
+        <v>88</v>
       </c>
       <c r="E46">
-        <v>88.28012847900391</v>
+        <v>87.47496795654297</v>
       </c>
       <c r="F46">
-        <v>4082700</v>
+        <v>5097400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>88.72000122070312</v>
+        <v>87.68000030517578</v>
       </c>
       <c r="B47">
-        <v>89.19000244140625</v>
+        <v>88.05999755859375</v>
       </c>
       <c r="C47">
-        <v>88.25</v>
+        <v>86.86000061035156</v>
       </c>
       <c r="D47">
-        <v>88.72000122070312</v>
+        <v>87.37999725341797</v>
       </c>
       <c r="E47">
-        <v>88.190673828125</v>
+        <v>86.85865783691406</v>
       </c>
       <c r="F47">
-        <v>5924900</v>
+        <v>4150100</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>88.94999694824219</v>
+        <v>87.41999816894531</v>
       </c>
       <c r="B48">
-        <v>89.80000305175781</v>
+        <v>87.61000061035156</v>
       </c>
       <c r="C48">
-        <v>88.80000305175781</v>
+        <v>86.56999969482422</v>
       </c>
       <c r="D48">
-        <v>89.40000152587891</v>
+        <v>86.59999847412109</v>
       </c>
       <c r="E48">
-        <v>88.86661529541016</v>
+        <v>86.08331298828125</v>
       </c>
       <c r="F48">
-        <v>5336700</v>
+        <v>3524500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>89.23000335693359</v>
+        <v>87.18000030517578</v>
       </c>
       <c r="B49">
-        <v>89.43000030517578</v>
+        <v>87.18000030517578</v>
       </c>
       <c r="C49">
-        <v>87.94999694824219</v>
+        <v>86.26000213623047</v>
       </c>
       <c r="D49">
-        <v>88.43000030517578</v>
+        <v>86.84999847412109</v>
       </c>
       <c r="E49">
-        <v>87.90239715576172</v>
+        <v>86.33182525634766</v>
       </c>
       <c r="F49">
-        <v>8033800</v>
+        <v>5335200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>88.48000335693359</v>
+        <v>87.02999877929688</v>
       </c>
       <c r="B50">
-        <v>88.73000335693359</v>
+        <v>87.40000152587891</v>
       </c>
       <c r="C50">
-        <v>86.31999969482422</v>
+        <v>86.68000030517578</v>
       </c>
       <c r="D50">
-        <v>87.12999725341797</v>
+        <v>86.72000122070312</v>
       </c>
       <c r="E50">
-        <v>86.61015319824219</v>
+        <v>86.20260620117188</v>
       </c>
       <c r="F50">
-        <v>7480500</v>
+        <v>6611000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>85.90000152587891</v>
+        <v>86.38999938964844</v>
       </c>
       <c r="B51">
-        <v>86.73000335693359</v>
+        <v>86.40000152587891</v>
       </c>
       <c r="C51">
-        <v>85.62000274658203</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="D51">
-        <v>85.91999816894531</v>
+        <v>85.11000061035156</v>
       </c>
       <c r="E51">
-        <v>85.40737152099609</v>
+        <v>84.60221099853516</v>
       </c>
       <c r="F51">
-        <v>10387200</v>
+        <v>5738300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>86.75</v>
+        <v>85.37999725341797</v>
       </c>
       <c r="B52">
-        <v>88.13999938964844</v>
+        <v>85.87000274658203</v>
       </c>
       <c r="C52">
-        <v>86.51999664306641</v>
+        <v>84.33999633789062</v>
       </c>
       <c r="D52">
-        <v>88</v>
+        <v>84.44000244140625</v>
       </c>
       <c r="E52">
-        <v>87.47496795654297</v>
+        <v>83.93621063232422</v>
       </c>
       <c r="F52">
-        <v>5097400</v>
+        <v>6496800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>87.68000030517578</v>
+        <v>84.33999633789062</v>
       </c>
       <c r="B53">
-        <v>88.05999755859375</v>
+        <v>85.66999816894531</v>
       </c>
       <c r="C53">
-        <v>86.86000061035156</v>
+        <v>84.13999938964844</v>
       </c>
       <c r="D53">
-        <v>87.37999725341797</v>
+        <v>85.30999755859375</v>
       </c>
       <c r="E53">
-        <v>86.85865783691406</v>
+        <v>84.80101013183594</v>
       </c>
       <c r="F53">
-        <v>4150100</v>
+        <v>4744500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>87.41999816894531</v>
+        <v>85.41999816894531</v>
       </c>
       <c r="B54">
-        <v>87.61000061035156</v>
+        <v>86.25</v>
       </c>
       <c r="C54">
-        <v>86.56999969482422</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="D54">
-        <v>86.59999847412109</v>
+        <v>86.22000122070312</v>
       </c>
       <c r="E54">
-        <v>86.08331298828125</v>
+        <v>85.70558929443359</v>
       </c>
       <c r="F54">
-        <v>3524500</v>
+        <v>3903900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>87.18000030517578</v>
+        <v>86.5</v>
       </c>
       <c r="B55">
-        <v>87.18000030517578</v>
+        <v>87</v>
       </c>
       <c r="C55">
-        <v>86.26000213623047</v>
+        <v>85.83000183105469</v>
       </c>
       <c r="D55">
-        <v>86.84999847412109</v>
+        <v>86.69999694824219</v>
       </c>
       <c r="E55">
-        <v>86.33182525634766</v>
+        <v>86.18271636962891</v>
       </c>
       <c r="F55">
-        <v>5335200</v>
+        <v>4185400</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>87.02999877929688</v>
+        <v>86.15000152587891</v>
       </c>
       <c r="B56">
-        <v>87.40000152587891</v>
+        <v>86.48999786376953</v>
       </c>
       <c r="C56">
-        <v>86.68000030517578</v>
+        <v>84.93000030517578</v>
       </c>
       <c r="D56">
-        <v>86.72000122070312</v>
+        <v>85.75</v>
       </c>
       <c r="E56">
-        <v>86.20260620117188</v>
+        <v>85.23838806152344</v>
       </c>
       <c r="F56">
-        <v>6611000</v>
+        <v>4140000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>86.38999938964844</v>
+        <v>85.16999816894531</v>
       </c>
       <c r="B57">
-        <v>86.40000152587891</v>
+        <v>86.04000091552734</v>
       </c>
       <c r="C57">
-        <v>84.76000213623047</v>
+        <v>84.81999969482422</v>
       </c>
       <c r="D57">
-        <v>85.11000061035156</v>
+        <v>85.83000183105469</v>
       </c>
       <c r="E57">
-        <v>84.60221099853516</v>
+        <v>85.31791687011719</v>
       </c>
       <c r="F57">
-        <v>5738300</v>
+        <v>4127200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>85.37999725341797</v>
+        <v>84.59999847412109</v>
       </c>
       <c r="B58">
-        <v>85.87000274658203</v>
+        <v>85.77999877929688</v>
       </c>
       <c r="C58">
-        <v>84.33999633789062</v>
+        <v>84.01999664306641</v>
       </c>
       <c r="D58">
-        <v>84.44000244140625</v>
+        <v>85.44000244140625</v>
       </c>
       <c r="E58">
-        <v>83.93621063232422</v>
+        <v>84.93024444580078</v>
       </c>
       <c r="F58">
-        <v>6496800</v>
+        <v>4665500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>84.33999633789062</v>
+        <v>86.5</v>
       </c>
       <c r="B59">
-        <v>85.66999816894531</v>
+        <v>86.75</v>
       </c>
       <c r="C59">
-        <v>84.13999938964844</v>
+        <v>86.01999664306641</v>
       </c>
       <c r="D59">
-        <v>85.30999755859375</v>
+        <v>86.37999725341797</v>
       </c>
       <c r="E59">
-        <v>84.80101013183594</v>
+        <v>85.8646240234375</v>
       </c>
       <c r="F59">
-        <v>4744500</v>
+        <v>4556200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>85.41999816894531</v>
+        <v>85.55999755859375</v>
       </c>
       <c r="B60">
-        <v>86.25</v>
+        <v>86.40000152587891</v>
       </c>
       <c r="C60">
-        <v>85.26999664306641</v>
+        <v>85.01999664306641</v>
       </c>
       <c r="D60">
         <v>86.22000122070312</v>
@@ -1592,1387 +1592,1387 @@
         <v>85.70558929443359</v>
       </c>
       <c r="F60">
-        <v>3903900</v>
+        <v>5464400</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>86.5</v>
+        <v>86.16999816894531</v>
       </c>
       <c r="B61">
-        <v>87</v>
+        <v>86.23999786376953</v>
       </c>
       <c r="C61">
-        <v>85.83000183105469</v>
+        <v>85.26000213623047</v>
       </c>
       <c r="D61">
-        <v>86.69999694824219</v>
+        <v>85.33000183105469</v>
       </c>
       <c r="E61">
-        <v>86.18271636962891</v>
+        <v>84.82089996337891</v>
       </c>
       <c r="F61">
-        <v>4185400</v>
+        <v>4595000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>86.15000152587891</v>
+        <v>85.18000030517578</v>
       </c>
       <c r="B62">
-        <v>86.48999786376953</v>
+        <v>85.88999938964844</v>
       </c>
       <c r="C62">
-        <v>84.93000030517578</v>
+        <v>84.45999908447266</v>
       </c>
       <c r="D62">
-        <v>85.75</v>
+        <v>84.91000366210938</v>
       </c>
       <c r="E62">
-        <v>85.23838806152344</v>
+        <v>84.40340423583984</v>
       </c>
       <c r="F62">
-        <v>4140000</v>
+        <v>3665400</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>85.16999816894531</v>
+        <v>84.08999633789062</v>
       </c>
       <c r="B63">
-        <v>86.04000091552734</v>
+        <v>85.52999877929688</v>
       </c>
       <c r="C63">
-        <v>84.81999969482422</v>
+        <v>83.94000244140625</v>
       </c>
       <c r="D63">
-        <v>85.83000183105469</v>
+        <v>84.98000335693359</v>
       </c>
       <c r="E63">
-        <v>85.31791687011719</v>
+        <v>84.47298431396484</v>
       </c>
       <c r="F63">
-        <v>4127200</v>
+        <v>3460800</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>84.59999847412109</v>
+        <v>85.62000274658203</v>
       </c>
       <c r="B64">
-        <v>85.77999877929688</v>
+        <v>85.75</v>
       </c>
       <c r="C64">
-        <v>84.01999664306641</v>
+        <v>83.30000305175781</v>
       </c>
       <c r="D64">
-        <v>85.44000244140625</v>
+        <v>83.52999877929688</v>
       </c>
       <c r="E64">
-        <v>84.93024444580078</v>
+        <v>83.03163146972656</v>
       </c>
       <c r="F64">
-        <v>4665500</v>
+        <v>4023800</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>86.5</v>
+        <v>81.80000305175781</v>
       </c>
       <c r="B65">
-        <v>86.75</v>
+        <v>81.95999908447266</v>
       </c>
       <c r="C65">
-        <v>86.01999664306641</v>
+        <v>79.72000122070312</v>
       </c>
       <c r="D65">
-        <v>86.37999725341797</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="E65">
-        <v>85.8646240234375</v>
+        <v>80.56643676757812</v>
       </c>
       <c r="F65">
-        <v>4556200</v>
+        <v>9221300</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>85.55999755859375</v>
+        <v>81.30000305175781</v>
       </c>
       <c r="B66">
-        <v>86.40000152587891</v>
+        <v>85.12999725341797</v>
       </c>
       <c r="C66">
-        <v>85.01999664306641</v>
+        <v>81.01999664306641</v>
       </c>
       <c r="D66">
-        <v>86.22000122070312</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="E66">
-        <v>85.70558929443359</v>
+        <v>84.29405975341797</v>
       </c>
       <c r="F66">
-        <v>5464400</v>
+        <v>7935000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>86.16999816894531</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="B67">
-        <v>86.23999786376953</v>
+        <v>86.95999908447266</v>
       </c>
       <c r="C67">
-        <v>85.26000213623047</v>
+        <v>85.05000305175781</v>
       </c>
       <c r="D67">
-        <v>85.33000183105469</v>
+        <v>86.58000183105469</v>
       </c>
       <c r="E67">
-        <v>84.82089996337891</v>
+        <v>86.06343841552734</v>
       </c>
       <c r="F67">
-        <v>4595000</v>
+        <v>5398300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>85.18000030517578</v>
+        <v>86.26999664306641</v>
       </c>
       <c r="B68">
-        <v>85.88999938964844</v>
+        <v>86.5</v>
       </c>
       <c r="C68">
-        <v>84.45999908447266</v>
+        <v>85.19000244140625</v>
       </c>
       <c r="D68">
-        <v>84.91000366210938</v>
+        <v>85.81999969482422</v>
       </c>
       <c r="E68">
-        <v>84.40340423583984</v>
+        <v>85.30796813964844</v>
       </c>
       <c r="F68">
-        <v>3665400</v>
+        <v>4124300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>84.08999633789062</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="B69">
-        <v>85.52999877929688</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="C69">
-        <v>83.94000244140625</v>
+        <v>85.61000061035156</v>
       </c>
       <c r="D69">
-        <v>84.98000335693359</v>
+        <v>85.80999755859375</v>
       </c>
       <c r="E69">
-        <v>84.47298431396484</v>
+        <v>85.29802703857422</v>
       </c>
       <c r="F69">
-        <v>3460800</v>
+        <v>2607600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>85.62000274658203</v>
+        <v>85.73000335693359</v>
       </c>
       <c r="B70">
-        <v>85.75</v>
+        <v>86.19999694824219</v>
       </c>
       <c r="C70">
-        <v>83.30000305175781</v>
+        <v>85.41999816894531</v>
       </c>
       <c r="D70">
-        <v>83.52999877929688</v>
+        <v>85.94999694824219</v>
       </c>
       <c r="E70">
-        <v>83.03163146972656</v>
+        <v>85.43719482421875</v>
       </c>
       <c r="F70">
-        <v>4023800</v>
+        <v>3759800</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>81.80000305175781</v>
+        <v>87.59999847412109</v>
       </c>
       <c r="B71">
-        <v>81.95999908447266</v>
+        <v>89.45999908447266</v>
       </c>
       <c r="C71">
-        <v>79.72000122070312</v>
+        <v>87.41000366210938</v>
       </c>
       <c r="D71">
-        <v>81.05000305175781</v>
+        <v>88.22000122070312</v>
       </c>
       <c r="E71">
-        <v>80.56643676757812</v>
+        <v>87.69365692138672</v>
       </c>
       <c r="F71">
-        <v>9221300</v>
+        <v>8429700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>81.30000305175781</v>
+        <v>89.12000274658203</v>
       </c>
       <c r="B72">
-        <v>85.12999725341797</v>
+        <v>89.12000274658203</v>
       </c>
       <c r="C72">
-        <v>81.01999664306641</v>
+        <v>86.94999694824219</v>
       </c>
       <c r="D72">
-        <v>84.80000305175781</v>
+        <v>87.19999694824219</v>
       </c>
       <c r="E72">
-        <v>84.29405975341797</v>
+        <v>86.67973327636719</v>
       </c>
       <c r="F72">
-        <v>7935000</v>
+        <v>5517100</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>85.26999664306641</v>
+        <v>88.62999725341797</v>
       </c>
       <c r="B73">
-        <v>86.95999908447266</v>
+        <v>88.65000152587891</v>
       </c>
       <c r="C73">
-        <v>85.05000305175781</v>
+        <v>87.48999786376953</v>
       </c>
       <c r="D73">
-        <v>86.58000183105469</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="E73">
-        <v>86.06343841552734</v>
+        <v>87.12705230712891</v>
       </c>
       <c r="F73">
-        <v>5398300</v>
+        <v>4135400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>86.26999664306641</v>
+        <v>87.37000274658203</v>
       </c>
       <c r="B74">
-        <v>86.5</v>
+        <v>87.76000213623047</v>
       </c>
       <c r="C74">
-        <v>85.19000244140625</v>
+        <v>86.66000366210938</v>
       </c>
       <c r="D74">
-        <v>85.81999969482422</v>
+        <v>86.94999694824219</v>
       </c>
       <c r="E74">
-        <v>85.30796813964844</v>
+        <v>86.43122863769531</v>
       </c>
       <c r="F74">
-        <v>4124300</v>
+        <v>4443600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>86.73000335693359</v>
+        <v>87.13999938964844</v>
       </c>
       <c r="B75">
-        <v>86.73000335693359</v>
+        <v>88.73999786376953</v>
       </c>
       <c r="C75">
-        <v>85.61000061035156</v>
+        <v>86.51000213623047</v>
       </c>
       <c r="D75">
-        <v>85.80999755859375</v>
+        <v>86.61000061035156</v>
       </c>
       <c r="E75">
-        <v>85.29802703857422</v>
+        <v>86.09326171875</v>
       </c>
       <c r="F75">
-        <v>2607600</v>
+        <v>4049200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>85.73000335693359</v>
+        <v>86.69000244140625</v>
       </c>
       <c r="B76">
-        <v>86.19999694824219</v>
+        <v>88</v>
       </c>
       <c r="C76">
-        <v>85.41999816894531</v>
+        <v>85.33000183105469</v>
       </c>
       <c r="D76">
-        <v>85.94999694824219</v>
+        <v>87.97000122070312</v>
       </c>
       <c r="E76">
-        <v>85.43719482421875</v>
+        <v>87.44514465332031</v>
       </c>
       <c r="F76">
-        <v>3759800</v>
+        <v>4629200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>87.59999847412109</v>
+        <v>86.87000274658203</v>
       </c>
       <c r="B77">
-        <v>89.45999908447266</v>
+        <v>87.38999938964844</v>
       </c>
       <c r="C77">
-        <v>87.41000366210938</v>
+        <v>85.65000152587891</v>
       </c>
       <c r="D77">
-        <v>88.22000122070312</v>
+        <v>85.81999969482422</v>
       </c>
       <c r="E77">
-        <v>87.69365692138672</v>
+        <v>85.30796813964844</v>
       </c>
       <c r="F77">
-        <v>8429700</v>
+        <v>5286000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>89.12000274658203</v>
+        <v>86.41000366210938</v>
       </c>
       <c r="B78">
-        <v>89.12000274658203</v>
+        <v>87.43000030517578</v>
       </c>
       <c r="C78">
-        <v>86.94999694824219</v>
+        <v>86.19000244140625</v>
       </c>
       <c r="D78">
-        <v>87.19999694824219</v>
+        <v>86.87999725341797</v>
       </c>
       <c r="E78">
-        <v>86.67973327636719</v>
+        <v>86.36164093017578</v>
       </c>
       <c r="F78">
-        <v>5517100</v>
+        <v>3604600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>88.62999725341797</v>
+        <v>87.44999694824219</v>
       </c>
       <c r="B79">
-        <v>88.65000152587891</v>
+        <v>87.98000335693359</v>
       </c>
       <c r="C79">
-        <v>87.48999786376953</v>
+        <v>87.16999816894531</v>
       </c>
       <c r="D79">
-        <v>87.65000152587891</v>
+        <v>87.58000183105469</v>
       </c>
       <c r="E79">
-        <v>87.12705230712891</v>
+        <v>87.05747222900391</v>
       </c>
       <c r="F79">
-        <v>4135400</v>
+        <v>3019700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>87.37000274658203</v>
+        <v>87.05999755859375</v>
       </c>
       <c r="B80">
-        <v>87.76000213623047</v>
+        <v>87.43000030517578</v>
       </c>
       <c r="C80">
-        <v>86.66000366210938</v>
+        <v>86.52999877929688</v>
       </c>
       <c r="D80">
-        <v>86.94999694824219</v>
+        <v>87.08000183105469</v>
       </c>
       <c r="E80">
-        <v>86.43122863769531</v>
+        <v>86.56045532226562</v>
       </c>
       <c r="F80">
-        <v>4443600</v>
+        <v>3265600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>87.13999938964844</v>
+        <v>87.19000244140625</v>
       </c>
       <c r="B81">
-        <v>88.73999786376953</v>
+        <v>88.05999755859375</v>
       </c>
       <c r="C81">
-        <v>86.51000213623047</v>
+        <v>87</v>
       </c>
       <c r="D81">
-        <v>86.61000061035156</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="E81">
-        <v>86.09326171875</v>
+        <v>87.12705230712891</v>
       </c>
       <c r="F81">
-        <v>4049200</v>
+        <v>2909100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>86.69000244140625</v>
+        <v>87.80999755859375</v>
       </c>
       <c r="B82">
-        <v>88</v>
+        <v>88.66000366210938</v>
       </c>
       <c r="C82">
-        <v>85.33000183105469</v>
+        <v>87.43000030517578</v>
       </c>
       <c r="D82">
-        <v>87.97000122070312</v>
+        <v>88.62000274658203</v>
       </c>
       <c r="E82">
-        <v>87.44514465332031</v>
+        <v>88.09127044677734</v>
       </c>
       <c r="F82">
-        <v>4629200</v>
+        <v>3724800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>86.87000274658203</v>
+        <v>88.40000152587891</v>
       </c>
       <c r="B83">
-        <v>87.38999938964844</v>
+        <v>88.66000366210938</v>
       </c>
       <c r="C83">
-        <v>85.65000152587891</v>
+        <v>87.37999725341797</v>
       </c>
       <c r="D83">
-        <v>85.81999969482422</v>
+        <v>87.98000335693359</v>
       </c>
       <c r="E83">
-        <v>85.30796813964844</v>
+        <v>87.45508575439453</v>
       </c>
       <c r="F83">
-        <v>5286000</v>
+        <v>2816500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>86.41000366210938</v>
+        <v>88.09999847412109</v>
       </c>
       <c r="B84">
-        <v>87.43000030517578</v>
+        <v>88.13999938964844</v>
       </c>
       <c r="C84">
-        <v>86.19000244140625</v>
+        <v>87.13999938964844</v>
       </c>
       <c r="D84">
-        <v>86.87999725341797</v>
+        <v>87.25</v>
       </c>
       <c r="E84">
-        <v>86.36164093017578</v>
+        <v>86.72943878173828</v>
       </c>
       <c r="F84">
-        <v>3604600</v>
+        <v>3050300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>87.44999694824219</v>
+        <v>86.72000122070312</v>
       </c>
       <c r="B85">
-        <v>87.98000335693359</v>
+        <v>87.26000213623047</v>
       </c>
       <c r="C85">
-        <v>87.16999816894531</v>
+        <v>85.56999969482422</v>
       </c>
       <c r="D85">
-        <v>87.58000183105469</v>
+        <v>87.13999938964844</v>
       </c>
       <c r="E85">
-        <v>87.05747222900391</v>
+        <v>86.62009429931641</v>
       </c>
       <c r="F85">
-        <v>3019700</v>
+        <v>3895900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>87.05999755859375</v>
+        <v>86.40000152587891</v>
       </c>
       <c r="B86">
-        <v>87.43000030517578</v>
+        <v>87.16999816894531</v>
       </c>
       <c r="C86">
-        <v>86.52999877929688</v>
+        <v>85.65000152587891</v>
       </c>
       <c r="D86">
-        <v>87.08000183105469</v>
+        <v>86.61000061035156</v>
       </c>
       <c r="E86">
-        <v>86.56045532226562</v>
+        <v>86.09326171875</v>
       </c>
       <c r="F86">
-        <v>3265600</v>
+        <v>3999200</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>87.19000244140625</v>
+        <v>86.05000305175781</v>
       </c>
       <c r="B87">
-        <v>88.05999755859375</v>
+        <v>86.91999816894531</v>
       </c>
       <c r="C87">
-        <v>87</v>
+        <v>85.41000366210938</v>
       </c>
       <c r="D87">
-        <v>87.65000152587891</v>
+        <v>85.48000335693359</v>
       </c>
       <c r="E87">
-        <v>87.12705230712891</v>
+        <v>84.97000122070312</v>
       </c>
       <c r="F87">
-        <v>2909100</v>
+        <v>4256200</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>87.80999755859375</v>
+        <v>84.33000183105469</v>
       </c>
       <c r="B88">
-        <v>88.66000366210938</v>
+        <v>84.83999633789062</v>
       </c>
       <c r="C88">
-        <v>87.43000030517578</v>
+        <v>82.97000122070312</v>
       </c>
       <c r="D88">
-        <v>88.62000274658203</v>
+        <v>83.34999847412109</v>
       </c>
       <c r="E88">
-        <v>88.09127044677734</v>
+        <v>83.34999847412109</v>
       </c>
       <c r="F88">
-        <v>3724800</v>
+        <v>5707000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>88.40000152587891</v>
+        <v>83.29000091552734</v>
       </c>
       <c r="B89">
-        <v>88.66000366210938</v>
+        <v>84.48000335693359</v>
       </c>
       <c r="C89">
-        <v>87.37999725341797</v>
+        <v>83</v>
       </c>
       <c r="D89">
-        <v>87.98000335693359</v>
+        <v>84.05000305175781</v>
       </c>
       <c r="E89">
-        <v>87.45508575439453</v>
+        <v>84.05000305175781</v>
       </c>
       <c r="F89">
-        <v>2816500</v>
+        <v>4501600</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>88.09999847412109</v>
+        <v>84.58000183105469</v>
       </c>
       <c r="B90">
-        <v>88.13999938964844</v>
+        <v>85.58000183105469</v>
       </c>
       <c r="C90">
-        <v>87.13999938964844</v>
+        <v>84.51000213623047</v>
       </c>
       <c r="D90">
-        <v>87.25</v>
+        <v>84.95999908447266</v>
       </c>
       <c r="E90">
-        <v>86.72943878173828</v>
+        <v>84.95999908447266</v>
       </c>
       <c r="F90">
-        <v>3050300</v>
+        <v>3367700</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>86.72000122070312</v>
+        <v>85.11000061035156</v>
       </c>
       <c r="B91">
-        <v>87.26000213623047</v>
+        <v>86.08000183105469</v>
       </c>
       <c r="C91">
-        <v>85.56999969482422</v>
+        <v>85</v>
       </c>
       <c r="D91">
-        <v>87.13999938964844</v>
+        <v>85.43000030517578</v>
       </c>
       <c r="E91">
-        <v>86.62009429931641</v>
+        <v>85.43000030517578</v>
       </c>
       <c r="F91">
-        <v>3895900</v>
+        <v>4751800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>86.40000152587891</v>
+        <v>85.62000274658203</v>
       </c>
       <c r="B92">
-        <v>87.16999816894531</v>
+        <v>86.44000244140625</v>
       </c>
       <c r="C92">
-        <v>85.65000152587891</v>
+        <v>85</v>
       </c>
       <c r="D92">
-        <v>86.61000061035156</v>
+        <v>85.73000335693359</v>
       </c>
       <c r="E92">
-        <v>86.09326171875</v>
+        <v>85.73000335693359</v>
       </c>
       <c r="F92">
-        <v>3999200</v>
+        <v>3195200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>86.05000305175781</v>
+        <v>85.66000366210938</v>
       </c>
       <c r="B93">
-        <v>86.91999816894531</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="C93">
-        <v>85.41000366210938</v>
+        <v>84.51999664306641</v>
       </c>
       <c r="D93">
-        <v>85.48000335693359</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="E93">
-        <v>84.97000122070312</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="F93">
-        <v>4256200</v>
+        <v>2596000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>84.33000183105469</v>
+        <v>85.18000030517578</v>
       </c>
       <c r="B94">
-        <v>84.83999633789062</v>
+        <v>86.13999938964844</v>
       </c>
       <c r="C94">
-        <v>82.97000122070312</v>
+        <v>85.15000152587891</v>
       </c>
       <c r="D94">
-        <v>83.34999847412109</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="E94">
-        <v>83.34999847412109</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="F94">
-        <v>5707000</v>
+        <v>3590000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>83.29000091552734</v>
+        <v>85.48999786376953</v>
       </c>
       <c r="B95">
-        <v>84.48000335693359</v>
+        <v>85.51999664306641</v>
       </c>
       <c r="C95">
-        <v>83</v>
+        <v>84.69999694824219</v>
       </c>
       <c r="D95">
-        <v>84.05000305175781</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="E95">
-        <v>84.05000305175781</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="F95">
-        <v>4501600</v>
+        <v>2936800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>84.58000183105469</v>
+        <v>84.65000152587891</v>
       </c>
       <c r="B96">
-        <v>85.58000183105469</v>
+        <v>85.41999816894531</v>
       </c>
       <c r="C96">
-        <v>84.51000213623047</v>
+        <v>84.33999633789062</v>
       </c>
       <c r="D96">
-        <v>84.95999908447266</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="E96">
-        <v>84.95999908447266</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="F96">
-        <v>3367700</v>
+        <v>3969600</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>85.11000061035156</v>
+        <v>85.13999938964844</v>
       </c>
       <c r="B97">
-        <v>86.08000183105469</v>
+        <v>85.13999938964844</v>
       </c>
       <c r="C97">
-        <v>85</v>
+        <v>83.91999816894531</v>
       </c>
       <c r="D97">
-        <v>85.43000030517578</v>
+        <v>84.09999847412109</v>
       </c>
       <c r="E97">
-        <v>85.43000030517578</v>
+        <v>84.09999847412109</v>
       </c>
       <c r="F97">
-        <v>4751800</v>
+        <v>4109000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>85.62000274658203</v>
+        <v>84.19999694824219</v>
       </c>
       <c r="B98">
-        <v>86.44000244140625</v>
+        <v>84.94999694824219</v>
       </c>
       <c r="C98">
-        <v>85</v>
+        <v>84.12999725341797</v>
       </c>
       <c r="D98">
-        <v>85.73000335693359</v>
+        <v>84.54000091552734</v>
       </c>
       <c r="E98">
-        <v>85.73000335693359</v>
+        <v>84.54000091552734</v>
       </c>
       <c r="F98">
-        <v>3195200</v>
+        <v>3471600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>85.66000366210938</v>
+        <v>84.37999725341797</v>
       </c>
       <c r="B99">
-        <v>85.80000305175781</v>
+        <v>84.62999725341797</v>
       </c>
       <c r="C99">
-        <v>84.51999664306641</v>
+        <v>83.5</v>
       </c>
       <c r="D99">
-        <v>84.76000213623047</v>
+        <v>83.65000152587891</v>
       </c>
       <c r="E99">
-        <v>84.76000213623047</v>
+        <v>83.65000152587891</v>
       </c>
       <c r="F99">
-        <v>2596000</v>
+        <v>3300100</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>85.18000030517578</v>
+        <v>83.36000061035156</v>
       </c>
       <c r="B100">
-        <v>86.13999938964844</v>
+        <v>83.65000152587891</v>
       </c>
       <c r="C100">
-        <v>85.15000152587891</v>
+        <v>82.36000061035156</v>
       </c>
       <c r="D100">
-        <v>85.40000152587891</v>
+        <v>83</v>
       </c>
       <c r="E100">
-        <v>85.40000152587891</v>
+        <v>83</v>
       </c>
       <c r="F100">
-        <v>3590000</v>
+        <v>5701400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>85.48999786376953</v>
+        <v>82.83000183105469</v>
       </c>
       <c r="B101">
-        <v>85.51999664306641</v>
+        <v>83.48000335693359</v>
       </c>
       <c r="C101">
-        <v>84.69999694824219</v>
+        <v>82.19999694824219</v>
       </c>
       <c r="D101">
-        <v>84.80000305175781</v>
+        <v>82.87000274658203</v>
       </c>
       <c r="E101">
-        <v>84.80000305175781</v>
+        <v>82.87000274658203</v>
       </c>
       <c r="F101">
-        <v>2936800</v>
+        <v>3911400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>84.65000152587891</v>
+        <v>82.93000030517578</v>
       </c>
       <c r="B102">
-        <v>85.41999816894531</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="C102">
-        <v>84.33999633789062</v>
+        <v>82.73000335693359</v>
       </c>
       <c r="D102">
-        <v>84.76000213623047</v>
+        <v>83.66000366210938</v>
       </c>
       <c r="E102">
-        <v>84.76000213623047</v>
+        <v>83.66000366210938</v>
       </c>
       <c r="F102">
-        <v>3969600</v>
+        <v>4521200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>85.13999938964844</v>
+        <v>84.18000030517578</v>
       </c>
       <c r="B103">
-        <v>85.13999938964844</v>
+        <v>84.45999908447266</v>
       </c>
       <c r="C103">
-        <v>83.91999816894531</v>
+        <v>82.80000305175781</v>
       </c>
       <c r="D103">
-        <v>84.09999847412109</v>
+        <v>83</v>
       </c>
       <c r="E103">
-        <v>84.09999847412109</v>
+        <v>83</v>
       </c>
       <c r="F103">
-        <v>4109000</v>
+        <v>3893400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>84.19999694824219</v>
+        <v>83.77999877929688</v>
       </c>
       <c r="B104">
-        <v>84.94999694824219</v>
+        <v>84.23000335693359</v>
       </c>
       <c r="C104">
-        <v>84.12999725341797</v>
+        <v>82.76000213623047</v>
       </c>
       <c r="D104">
-        <v>84.54000091552734</v>
+        <v>83.63999938964844</v>
       </c>
       <c r="E104">
-        <v>84.54000091552734</v>
+        <v>83.63999938964844</v>
       </c>
       <c r="F104">
-        <v>3471600</v>
+        <v>4768000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>84.37999725341797</v>
+        <v>83.80000305175781</v>
       </c>
       <c r="B105">
-        <v>84.62999725341797</v>
+        <v>83.83999633789062</v>
       </c>
       <c r="C105">
-        <v>83.5</v>
+        <v>82.26000213623047</v>
       </c>
       <c r="D105">
-        <v>83.65000152587891</v>
+        <v>82.73999786376953</v>
       </c>
       <c r="E105">
-        <v>83.65000152587891</v>
+        <v>82.73999786376953</v>
       </c>
       <c r="F105">
-        <v>3300100</v>
+        <v>5253300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>83.36000061035156</v>
+        <v>83.18000030517578</v>
       </c>
       <c r="B106">
-        <v>83.65000152587891</v>
+        <v>85.05999755859375</v>
       </c>
       <c r="C106">
-        <v>82.36000061035156</v>
+        <v>82.83000183105469</v>
       </c>
       <c r="D106">
-        <v>83</v>
+        <v>84.87000274658203</v>
       </c>
       <c r="E106">
-        <v>83</v>
+        <v>84.87000274658203</v>
       </c>
       <c r="F106">
-        <v>5701400</v>
+        <v>5673400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>82.83000183105469</v>
+        <v>84.94000244140625</v>
       </c>
       <c r="B107">
-        <v>83.48000335693359</v>
+        <v>85.12999725341797</v>
       </c>
       <c r="C107">
-        <v>82.19999694824219</v>
+        <v>83.87999725341797</v>
       </c>
       <c r="D107">
-        <v>82.87000274658203</v>
+        <v>84.01999664306641</v>
       </c>
       <c r="E107">
-        <v>82.87000274658203</v>
+        <v>84.01999664306641</v>
       </c>
       <c r="F107">
-        <v>3911400</v>
+        <v>5907500</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>82.93000030517578</v>
+        <v>83.58999633789062</v>
       </c>
       <c r="B108">
-        <v>84.34999847412109</v>
+        <v>84.01000213623047</v>
       </c>
       <c r="C108">
-        <v>82.73000335693359</v>
+        <v>82.37000274658203</v>
       </c>
       <c r="D108">
-        <v>83.66000366210938</v>
+        <v>83.38999938964844</v>
       </c>
       <c r="E108">
-        <v>83.66000366210938</v>
+        <v>83.38999938964844</v>
       </c>
       <c r="F108">
-        <v>4521200</v>
+        <v>23128700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>84.18000030517578</v>
+        <v>81.90000152587891</v>
       </c>
       <c r="B109">
-        <v>84.45999908447266</v>
+        <v>83.59999847412109</v>
       </c>
       <c r="C109">
-        <v>82.80000305175781</v>
+        <v>81.51999664306641</v>
       </c>
       <c r="D109">
-        <v>83</v>
+        <v>83.44999694824219</v>
       </c>
       <c r="E109">
-        <v>83</v>
+        <v>83.44999694824219</v>
       </c>
       <c r="F109">
-        <v>3893400</v>
+        <v>8217100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>83.77999877929688</v>
+        <v>83.68000030517578</v>
       </c>
       <c r="B110">
-        <v>84.23000335693359</v>
+        <v>84.15000152587891</v>
       </c>
       <c r="C110">
-        <v>82.76000213623047</v>
+        <v>82.66999816894531</v>
       </c>
       <c r="D110">
-        <v>83.63999938964844</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="E110">
-        <v>83.63999938964844</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="F110">
-        <v>4768000</v>
+        <v>5900300</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>83.80000305175781</v>
+        <v>83.97000122070312</v>
       </c>
       <c r="B111">
-        <v>83.83999633789062</v>
+        <v>85.95999908447266</v>
       </c>
       <c r="C111">
-        <v>82.26000213623047</v>
+        <v>83.61000061035156</v>
       </c>
       <c r="D111">
-        <v>82.73999786376953</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="E111">
-        <v>82.73999786376953</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="F111">
-        <v>5253300</v>
+        <v>6233700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>83.18000030517578</v>
+        <v>85.58000183105469</v>
       </c>
       <c r="B112">
-        <v>85.05999755859375</v>
+        <v>87</v>
       </c>
       <c r="C112">
-        <v>82.83000183105469</v>
+        <v>85.51000213623047</v>
       </c>
       <c r="D112">
-        <v>84.87000274658203</v>
+        <v>86.75</v>
       </c>
       <c r="E112">
-        <v>84.87000274658203</v>
+        <v>86.75</v>
       </c>
       <c r="F112">
-        <v>5673400</v>
+        <v>5906800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>84.94000244140625</v>
+        <v>86.56999969482422</v>
       </c>
       <c r="B113">
-        <v>85.12999725341797</v>
+        <v>87.66999816894531</v>
       </c>
       <c r="C113">
-        <v>83.87999725341797</v>
+        <v>86.36000061035156</v>
       </c>
       <c r="D113">
-        <v>84.01999664306641</v>
+        <v>87.16000366210938</v>
       </c>
       <c r="E113">
-        <v>84.01999664306641</v>
+        <v>87.16000366210938</v>
       </c>
       <c r="F113">
-        <v>5907500</v>
+        <v>4665900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>83.58999633789062</v>
+        <v>87.73000335693359</v>
       </c>
       <c r="B114">
-        <v>84.01000213623047</v>
+        <v>88.47000122070312</v>
       </c>
       <c r="C114">
-        <v>82.37000274658203</v>
+        <v>87.23000335693359</v>
       </c>
       <c r="D114">
-        <v>83.38999938964844</v>
+        <v>87.33999633789062</v>
       </c>
       <c r="E114">
-        <v>83.38999938964844</v>
+        <v>87.33999633789062</v>
       </c>
       <c r="F114">
-        <v>23128700</v>
+        <v>4162100</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>81.90000152587891</v>
+        <v>87.09999847412109</v>
       </c>
       <c r="B115">
-        <v>83.59999847412109</v>
+        <v>87.73000335693359</v>
       </c>
       <c r="C115">
-        <v>81.51999664306641</v>
+        <v>86.47000122070312</v>
       </c>
       <c r="D115">
-        <v>83.44999694824219</v>
+        <v>86.83999633789062</v>
       </c>
       <c r="E115">
-        <v>83.44999694824219</v>
+        <v>86.83999633789062</v>
       </c>
       <c r="F115">
-        <v>8217100</v>
+        <v>5781200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>83.68000030517578</v>
+        <v>87.16999816894531</v>
       </c>
       <c r="B116">
-        <v>84.15000152587891</v>
+        <v>87.81999969482422</v>
       </c>
       <c r="C116">
-        <v>82.66999816894531</v>
+        <v>86.69000244140625</v>
       </c>
       <c r="D116">
-        <v>83.11000061035156</v>
+        <v>86.98999786376953</v>
       </c>
       <c r="E116">
-        <v>83.11000061035156</v>
+        <v>86.98999786376953</v>
       </c>
       <c r="F116">
-        <v>5900300</v>
+        <v>3612600</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>83.97000122070312</v>
+        <v>87.48999786376953</v>
       </c>
       <c r="B117">
+        <v>87.5</v>
+      </c>
+      <c r="C117">
+        <v>85.86000061035156</v>
+      </c>
+      <c r="D117">
         <v>85.95999908447266</v>
       </c>
-      <c r="C117">
-        <v>83.61000061035156</v>
-      </c>
-      <c r="D117">
-        <v>85.26999664306641</v>
-      </c>
       <c r="E117">
-        <v>85.26999664306641</v>
+        <v>85.95999908447266</v>
       </c>
       <c r="F117">
-        <v>6233700</v>
+        <v>5642900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>85.58000183105469</v>
+        <v>86.80000305175781</v>
       </c>
       <c r="B118">
-        <v>87</v>
+        <v>87.93000030517578</v>
       </c>
       <c r="C118">
-        <v>85.51000213623047</v>
+        <v>86.13999938964844</v>
       </c>
       <c r="D118">
-        <v>86.75</v>
+        <v>87.48000335693359</v>
       </c>
       <c r="E118">
-        <v>86.75</v>
+        <v>87.48000335693359</v>
       </c>
       <c r="F118">
-        <v>5906800</v>
+        <v>5499500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>86.56999969482422</v>
+        <v>87</v>
       </c>
       <c r="B119">
-        <v>87.66999816894531</v>
+        <v>88</v>
       </c>
       <c r="C119">
-        <v>86.36000061035156</v>
+        <v>86.43000030517578</v>
       </c>
       <c r="D119">
-        <v>87.16000366210938</v>
+        <v>87.69000244140625</v>
       </c>
       <c r="E119">
-        <v>87.16000366210938</v>
+        <v>87.69000244140625</v>
       </c>
       <c r="F119">
-        <v>4665900</v>
+        <v>5490600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
+        <v>88</v>
+      </c>
+      <c r="B120">
+        <v>89.48999786376953</v>
+      </c>
+      <c r="C120">
         <v>87.73000335693359</v>
       </c>
-      <c r="B120">
-        <v>88.47000122070312</v>
-      </c>
-      <c r="C120">
-        <v>87.23000335693359</v>
-      </c>
       <c r="D120">
-        <v>87.33999633789062</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="E120">
-        <v>87.33999633789062</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="F120">
-        <v>4162100</v>
+        <v>4820500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>87.09999847412109</v>
+        <v>88.19999694824219</v>
       </c>
       <c r="B121">
-        <v>87.73000335693359</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="C121">
-        <v>86.47000122070312</v>
+        <v>87.44999694824219</v>
       </c>
       <c r="D121">
-        <v>86.83999633789062</v>
+        <v>89.26999664306641</v>
       </c>
       <c r="E121">
-        <v>86.83999633789062</v>
+        <v>89.26999664306641</v>
       </c>
       <c r="F121">
-        <v>5781200</v>
+        <v>4354100</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>87.16999816894531</v>
+        <v>89.88999938964844</v>
       </c>
       <c r="B122">
-        <v>87.81999969482422</v>
+        <v>90.62999725341797</v>
       </c>
       <c r="C122">
-        <v>86.69000244140625</v>
+        <v>89.75</v>
       </c>
       <c r="D122">
-        <v>86.98999786376953</v>
+        <v>90.15000152587891</v>
       </c>
       <c r="E122">
-        <v>86.98999786376953</v>
+        <v>90.15000152587891</v>
       </c>
       <c r="F122">
-        <v>3612600</v>
+        <v>3750900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>87.48999786376953</v>
+        <v>90.30000305175781</v>
       </c>
       <c r="B123">
-        <v>87.5</v>
+        <v>90.83000183105469</v>
       </c>
       <c r="C123">
-        <v>85.86000061035156</v>
+        <v>89.73999786376953</v>
       </c>
       <c r="D123">
-        <v>85.95999908447266</v>
+        <v>90.62000274658203</v>
       </c>
       <c r="E123">
-        <v>85.95999908447266</v>
+        <v>90.62000274658203</v>
       </c>
       <c r="F123">
-        <v>5642900</v>
+        <v>3342700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>86.80000305175781</v>
+        <v>90.72000122070312</v>
       </c>
       <c r="B124">
-        <v>87.93000030517578</v>
+        <v>91.37999725341797</v>
       </c>
       <c r="C124">
-        <v>86.13999938964844</v>
+        <v>89.83999633789062</v>
       </c>
       <c r="D124">
-        <v>87.48000335693359</v>
+        <v>89.88999938964844</v>
       </c>
       <c r="E124">
-        <v>87.48000335693359</v>
+        <v>89.88999938964844</v>
       </c>
       <c r="F124">
-        <v>5499500</v>
+        <v>3048000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>87</v>
+        <v>89.61000061035156</v>
       </c>
       <c r="B125">
-        <v>88</v>
+        <v>90.55999755859375</v>
       </c>
       <c r="C125">
-        <v>86.43000030517578</v>
+        <v>89.16000366210938</v>
       </c>
       <c r="D125">
-        <v>87.69000244140625</v>
+        <v>89.72000122070312</v>
       </c>
       <c r="E125">
-        <v>87.69000244140625</v>
+        <v>89.72000122070312</v>
       </c>
       <c r="F125">
-        <v>5490600</v>
+        <v>3404100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>88</v>
+        <v>89.80999755859375</v>
       </c>
       <c r="B126">
-        <v>89.48999786376953</v>
+        <v>90</v>
       </c>
       <c r="C126">
-        <v>87.73000335693359</v>
+        <v>88.31999969482422</v>
       </c>
       <c r="D126">
-        <v>88.72000122070312</v>
+        <v>89.68000030517578</v>
       </c>
       <c r="E126">
-        <v>88.72000122070312</v>
+        <v>89.68000030517578</v>
       </c>
       <c r="F126">
-        <v>4820500</v>
+        <v>3285500</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>88.19999694824219</v>
+        <v>90.31999969482422</v>
       </c>
       <c r="B127">
-        <v>89.40000152587891</v>
+        <v>90.47000122070312</v>
       </c>
       <c r="C127">
-        <v>87.44999694824219</v>
+        <v>89.11000061035156</v>
       </c>
       <c r="D127">
-        <v>89.26999664306641</v>
+        <v>89.16999816894531</v>
       </c>
       <c r="E127">
-        <v>89.26999664306641</v>
+        <v>89.16999816894531</v>
       </c>
       <c r="F127">
-        <v>4354100</v>
+        <v>4225300</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>89.88999938964844</v>
+        <v>89.84999847412109</v>
       </c>
       <c r="B128">
-        <v>90.62999725341797</v>
+        <v>91.29000091552734</v>
       </c>
       <c r="C128">
-        <v>89.75</v>
+        <v>89.66999816894531</v>
       </c>
       <c r="D128">
-        <v>90.15000152587891</v>
+        <v>90.91999816894531</v>
       </c>
       <c r="E128">
-        <v>90.15000152587891</v>
+        <v>90.91999816894531</v>
       </c>
       <c r="F128">
-        <v>3750900</v>
+        <v>4580300</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>90.30000305175781</v>
+        <v>90.09999847412109</v>
       </c>
       <c r="B129">
-        <v>90.83000183105469</v>
+        <v>90.62999725341797</v>
       </c>
       <c r="C129">
-        <v>89.73999786376953</v>
+        <v>89.31999969482422</v>
       </c>
       <c r="D129">
-        <v>90.62000274658203</v>
+        <v>90.57900238037109</v>
       </c>
       <c r="E129">
-        <v>90.62000274658203</v>
+        <v>90.57900238037109</v>
       </c>
       <c r="F129">
-        <v>3342700</v>
+        <v>832238</v>
       </c>
     </row>
   </sheetData>
